--- a/excel/finished/环保/8BF-TRT日报表.xlsx
+++ b/excel/finished/环保/8BF-TRT日报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="8BF-TRT日报表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>炼 铁 厂 （ 8# ）TRT 系 统 运 行 记 录</t>
   </si>
@@ -430,33 +430,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,7 +446,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,41 +484,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -528,7 +500,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -536,9 +507,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,14 +523,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -568,7 +538,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,7 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,13 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,19 +624,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,13 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +744,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,67 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,11 +929,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,15 +949,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -967,36 +964,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,16 +993,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,140 +1044,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,15 +1199,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,6 +1232,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,6 +1244,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1247,6 +1262,12 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1255,6 +1276,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2061,109 +2085,115 @@
   <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="29" width="9" style="6"/>
+    <col min="1" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="9" style="8"/>
+    <col min="9" max="25" width="9" style="6"/>
+    <col min="26" max="26" width="9" style="8"/>
+    <col min="27" max="29" width="9" style="6"/>
     <col min="30" max="30" width="33.1833333333333" style="6" customWidth="1"/>
     <col min="31" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="22.5" spans="13:30">
-      <c r="M1" s="19" t="s">
+    <row r="1" s="6" customFormat="1" ht="22.5" spans="8:30">
+      <c r="H1" s="8"/>
+      <c r="M1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
     </row>
-    <row r="2" s="6" customFormat="1" ht="15" spans="13:30">
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="21" t="str">
+    <row r="2" s="6" customFormat="1" ht="15" spans="8:30">
+      <c r="H2" s="8"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26" t="str">
         <f>IF(_metadata!A2="","",_metadata!A2)</f>
         <v/>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="24" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="31" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:30">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9" t="s">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="25" t="s">
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" s="6" customFormat="1" ht="67.5" spans="1:30">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2212,7 @@
       <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -2236,7 +2266,7 @@
       <c r="Y4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="13" t="s">
         <v>30</v>
       </c>
       <c r="AA4" s="3" t="s">
@@ -2248,164 +2278,164 @@
       <c r="AC4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="26"/>
+      <c r="AD4" s="33"/>
     </row>
     <row r="5" s="6" customFormat="1" ht="31.5" spans="1:30">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
         <v>200</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <v>3150</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>80</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <v>80</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="14">
         <v>80</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="14">
         <v>80</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="14">
         <v>90</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="14">
         <v>90</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="14">
         <v>90</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="14">
         <v>90</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14">
         <v>85</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="14">
         <v>85</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="14">
         <v>7.5</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="14">
         <v>7.5</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="14">
         <v>11</v>
       </c>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11">
+      <c r="W5" s="14"/>
+      <c r="X5" s="14">
         <v>500</v>
       </c>
       <c r="Y5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="Z5" s="34">
         <v>0.14</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="AA5" s="14">
         <v>620</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="AC5" s="14">
         <v>45</v>
       </c>
-      <c r="AD5" s="26"/>
+      <c r="AD5" s="33"/>
     </row>
     <row r="6" s="6" customFormat="1" ht="31.5" spans="1:30">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14">
         <v>250</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14">
         <v>3240</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="14">
         <v>130</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="14">
         <v>130</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="14">
         <v>130</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="14">
         <v>130</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="14">
         <v>105</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="14">
         <v>105</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="14">
         <v>100</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="14">
         <v>100</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="11">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="14">
         <v>95</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="14">
         <v>95</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="14">
         <v>11.5</v>
       </c>
-      <c r="U6" s="11">
+      <c r="U6" s="14">
         <v>11.5</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="14">
         <v>9</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="14">
         <v>2.5</v>
       </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11">
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="34">
         <v>0.08</v>
       </c>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="26"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="33"/>
     </row>
     <row r="7" s="7" customFormat="1" ht="85.5" hidden="1" spans="1:30">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2424,7 +2454,7 @@
       <c r="G7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -2451,7 +2481,7 @@
       <c r="P7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="23" t="s">
+      <c r="Q7" s="28" t="s">
         <v>55</v>
       </c>
       <c r="R7" s="3" t="s">
@@ -2478,7 +2508,7 @@
       <c r="Y7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="13" t="s">
         <v>64</v>
       </c>
       <c r="AA7" s="3" t="s">
@@ -2490,2845 +2520,2845 @@
       <c r="AC7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="26"/>
+      <c r="AD7" s="33"/>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:30">
-      <c r="A8" s="13">
+      <c r="A8" s="16">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="17" t="str">
         <f>IF(_tag_day_hour!A2="","",_tag_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="17" t="str">
         <f>IF(_tag_day_hour!B2="","",_tag_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="17" t="str">
         <f>IF(_tag_day_hour!C2="","",_tag_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="E8" s="15" t="str">
+      <c r="E8" s="18" t="str">
         <f>IF(_tag_day_hour!D2="","",_tag_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F8" s="17" t="str">
         <f>IF(_tag_day_hour!E2="","",_tag_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="G8" s="14" t="str">
+      <c r="G8" s="17" t="str">
         <f>IF(_tag_day_hour!F2="","",_tag_day_hour!F2)</f>
         <v/>
       </c>
-      <c r="H8" s="14" t="str">
+      <c r="H8" s="19" t="str">
         <f>IF(_tag_day_hour!G2="","",_tag_day_hour!G2)</f>
         <v/>
       </c>
-      <c r="I8" s="14" t="str">
+      <c r="I8" s="17" t="str">
         <f>IF(_tag_day_hour!H2="","",_tag_day_hour!H2)</f>
         <v/>
       </c>
-      <c r="J8" s="14" t="str">
+      <c r="J8" s="17" t="str">
         <f>IF(_tag_day_hour!I2="","",_tag_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="K8" s="14" t="str">
+      <c r="K8" s="17" t="str">
         <f>IF(_tag_day_hour!J2="","",_tag_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="L8" s="14" t="str">
+      <c r="L8" s="17" t="str">
         <f>IF(_tag_day_hour!K2="","",_tag_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="M8" s="15" t="str">
+      <c r="M8" s="18" t="str">
         <f>IF(_tag_day_hour!L2="","",_tag_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="N8" s="15" t="str">
+      <c r="N8" s="18" t="str">
         <f>IF(_tag_day_hour!M2="","",_tag_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="O8" s="15" t="str">
+      <c r="O8" s="18" t="str">
         <f>IF(_tag_day_hour!N2="","",_tag_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="P8" s="15" t="str">
+      <c r="P8" s="18" t="str">
         <f>IF(_tag_day_hour!O2="","",_tag_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="Q8" s="14" t="str">
+      <c r="Q8" s="17" t="str">
         <f>IF(_tag_day_hour!P2="","",_tag_day_hour!P2)</f>
         <v/>
       </c>
-      <c r="R8" s="15" t="str">
+      <c r="R8" s="18" t="str">
         <f>IF(_tag_day_hour!Q2="","",_tag_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="S8" s="15" t="str">
+      <c r="S8" s="18" t="str">
         <f>IF(_tag_day_hour!R2="","",_tag_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="T8" s="14" t="str">
+      <c r="T8" s="17" t="str">
         <f>IF(_tag_day_hour!S2="","",_tag_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="U8" s="14" t="str">
+      <c r="U8" s="17" t="str">
         <f>IF(_tag_day_hour!T2="","",_tag_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="V8" s="14" t="str">
+      <c r="V8" s="17" t="str">
         <f>IF(_tag_day_hour!U2="","",_tag_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="W8" s="14" t="str">
+      <c r="W8" s="17" t="str">
         <f>IF(_tag_day_hour!V2="","",_tag_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="X8" s="14" t="str">
+      <c r="X8" s="17" t="str">
         <f>IF(_tag_day_hour!W2="","",_tag_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Y8" s="15" t="str">
+      <c r="Y8" s="18" t="str">
         <f>IF(_tag_day_hour!X2="","",_tag_day_hour!X2)</f>
         <v/>
       </c>
-      <c r="Z8" s="14" t="str">
+      <c r="Z8" s="19" t="str">
         <f>IF(_tag_day_hour!Y2="","",_tag_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AA8" s="14" t="str">
+      <c r="AA8" s="17" t="str">
         <f>IF(_tag_day_hour!Z2="","",_tag_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AB8" s="15" t="str">
+      <c r="AB8" s="18" t="str">
         <f>IF(_tag_day_hour!AA2="","",_tag_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AC8" s="15" t="str">
+      <c r="AC8" s="18" t="str">
         <f>IF(_tag_day_hour!AB2="","",_tag_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AD8" s="27" t="s">
+      <c r="AD8" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:30">
-      <c r="A9" s="13">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="str">
+      <c r="B9" s="17" t="str">
         <f>IF(_tag_day_hour!A3="","",_tag_day_hour!A3)</f>
         <v/>
       </c>
-      <c r="C9" s="14" t="str">
+      <c r="C9" s="17" t="str">
         <f>IF(_tag_day_hour!B3="","",_tag_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="17" t="str">
         <f>IF(_tag_day_hour!C3="","",_tag_day_hour!C3)</f>
         <v/>
       </c>
-      <c r="E9" s="15" t="str">
+      <c r="E9" s="18" t="str">
         <f>IF(_tag_day_hour!D3="","",_tag_day_hour!D3)</f>
         <v/>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="F9" s="17" t="str">
         <f>IF(_tag_day_hour!E3="","",_tag_day_hour!E3)</f>
         <v/>
       </c>
-      <c r="G9" s="14" t="str">
+      <c r="G9" s="17" t="str">
         <f>IF(_tag_day_hour!F3="","",_tag_day_hour!F3)</f>
         <v/>
       </c>
-      <c r="H9" s="14" t="str">
+      <c r="H9" s="19" t="str">
         <f>IF(_tag_day_hour!G3="","",_tag_day_hour!G3)</f>
         <v/>
       </c>
-      <c r="I9" s="14" t="str">
+      <c r="I9" s="17" t="str">
         <f>IF(_tag_day_hour!H3="","",_tag_day_hour!H3)</f>
         <v/>
       </c>
-      <c r="J9" s="14" t="str">
+      <c r="J9" s="17" t="str">
         <f>IF(_tag_day_hour!I3="","",_tag_day_hour!I3)</f>
         <v/>
       </c>
-      <c r="K9" s="14" t="str">
+      <c r="K9" s="17" t="str">
         <f>IF(_tag_day_hour!J3="","",_tag_day_hour!J3)</f>
         <v/>
       </c>
-      <c r="L9" s="14" t="str">
+      <c r="L9" s="17" t="str">
         <f>IF(_tag_day_hour!K3="","",_tag_day_hour!K3)</f>
         <v/>
       </c>
-      <c r="M9" s="15" t="str">
+      <c r="M9" s="18" t="str">
         <f>IF(_tag_day_hour!L3="","",_tag_day_hour!L3)</f>
         <v/>
       </c>
-      <c r="N9" s="15" t="str">
+      <c r="N9" s="18" t="str">
         <f>IF(_tag_day_hour!M3="","",_tag_day_hour!M3)</f>
         <v/>
       </c>
-      <c r="O9" s="15" t="str">
+      <c r="O9" s="18" t="str">
         <f>IF(_tag_day_hour!N3="","",_tag_day_hour!N3)</f>
         <v/>
       </c>
-      <c r="P9" s="15" t="str">
+      <c r="P9" s="18" t="str">
         <f>IF(_tag_day_hour!O3="","",_tag_day_hour!O3)</f>
         <v/>
       </c>
-      <c r="Q9" s="14" t="str">
+      <c r="Q9" s="17" t="str">
         <f>IF(_tag_day_hour!P3="","",_tag_day_hour!P3)</f>
         <v/>
       </c>
-      <c r="R9" s="15" t="str">
+      <c r="R9" s="18" t="str">
         <f>IF(_tag_day_hour!Q3="","",_tag_day_hour!Q3)</f>
         <v/>
       </c>
-      <c r="S9" s="15" t="str">
+      <c r="S9" s="18" t="str">
         <f>IF(_tag_day_hour!R3="","",_tag_day_hour!R3)</f>
         <v/>
       </c>
-      <c r="T9" s="14" t="str">
+      <c r="T9" s="17" t="str">
         <f>IF(_tag_day_hour!S3="","",_tag_day_hour!S3)</f>
         <v/>
       </c>
-      <c r="U9" s="14" t="str">
+      <c r="U9" s="17" t="str">
         <f>IF(_tag_day_hour!T3="","",_tag_day_hour!T3)</f>
         <v/>
       </c>
-      <c r="V9" s="14" t="str">
+      <c r="V9" s="17" t="str">
         <f>IF(_tag_day_hour!U3="","",_tag_day_hour!U3)</f>
         <v/>
       </c>
-      <c r="W9" s="14" t="str">
+      <c r="W9" s="17" t="str">
         <f>IF(_tag_day_hour!V3="","",_tag_day_hour!V3)</f>
         <v/>
       </c>
-      <c r="X9" s="14" t="str">
+      <c r="X9" s="17" t="str">
         <f>IF(_tag_day_hour!W3="","",_tag_day_hour!W3)</f>
         <v/>
       </c>
-      <c r="Y9" s="15" t="str">
+      <c r="Y9" s="18" t="str">
         <f>IF(_tag_day_hour!X3="","",_tag_day_hour!X3)</f>
         <v/>
       </c>
-      <c r="Z9" s="14" t="str">
+      <c r="Z9" s="19" t="str">
         <f>IF(_tag_day_hour!Y3="","",_tag_day_hour!Y3)</f>
         <v/>
       </c>
-      <c r="AA9" s="14" t="str">
+      <c r="AA9" s="17" t="str">
         <f>IF(_tag_day_hour!Z3="","",_tag_day_hour!Z3)</f>
         <v/>
       </c>
-      <c r="AB9" s="15" t="str">
+      <c r="AB9" s="18" t="str">
         <f>IF(_tag_day_hour!AA3="","",_tag_day_hour!AA3)</f>
         <v/>
       </c>
-      <c r="AC9" s="15" t="str">
+      <c r="AC9" s="18" t="str">
         <f>IF(_tag_day_hour!AB3="","",_tag_day_hour!AB3)</f>
         <v/>
       </c>
-      <c r="AD9" s="28"/>
+      <c r="AD9" s="36"/>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:30">
-      <c r="A10" s="13">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="str">
+      <c r="B10" s="17" t="str">
         <f>IF(_tag_day_hour!A4="","",_tag_day_hour!A4)</f>
         <v/>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="17" t="str">
         <f>IF(_tag_day_hour!B4="","",_tag_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="17" t="str">
         <f>IF(_tag_day_hour!C4="","",_tag_day_hour!C4)</f>
         <v/>
       </c>
-      <c r="E10" s="15" t="str">
+      <c r="E10" s="18" t="str">
         <f>IF(_tag_day_hour!D4="","",_tag_day_hour!D4)</f>
         <v/>
       </c>
-      <c r="F10" s="14" t="str">
+      <c r="F10" s="17" t="str">
         <f>IF(_tag_day_hour!E4="","",_tag_day_hour!E4)</f>
         <v/>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="17" t="str">
         <f>IF(_tag_day_hour!F4="","",_tag_day_hour!F4)</f>
         <v/>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="19" t="str">
         <f>IF(_tag_day_hour!G4="","",_tag_day_hour!G4)</f>
         <v/>
       </c>
-      <c r="I10" s="14" t="str">
+      <c r="I10" s="17" t="str">
         <f>IF(_tag_day_hour!H4="","",_tag_day_hour!H4)</f>
         <v/>
       </c>
-      <c r="J10" s="14" t="str">
+      <c r="J10" s="17" t="str">
         <f>IF(_tag_day_hour!I4="","",_tag_day_hour!I4)</f>
         <v/>
       </c>
-      <c r="K10" s="14" t="str">
+      <c r="K10" s="17" t="str">
         <f>IF(_tag_day_hour!J4="","",_tag_day_hour!J4)</f>
         <v/>
       </c>
-      <c r="L10" s="14" t="str">
+      <c r="L10" s="17" t="str">
         <f>IF(_tag_day_hour!K4="","",_tag_day_hour!K4)</f>
         <v/>
       </c>
-      <c r="M10" s="15" t="str">
+      <c r="M10" s="18" t="str">
         <f>IF(_tag_day_hour!L4="","",_tag_day_hour!L4)</f>
         <v/>
       </c>
-      <c r="N10" s="15" t="str">
+      <c r="N10" s="18" t="str">
         <f>IF(_tag_day_hour!M4="","",_tag_day_hour!M4)</f>
         <v/>
       </c>
-      <c r="O10" s="15" t="str">
+      <c r="O10" s="18" t="str">
         <f>IF(_tag_day_hour!N4="","",_tag_day_hour!N4)</f>
         <v/>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="P10" s="18" t="str">
         <f>IF(_tag_day_hour!O4="","",_tag_day_hour!O4)</f>
         <v/>
       </c>
-      <c r="Q10" s="14" t="str">
+      <c r="Q10" s="17" t="str">
         <f>IF(_tag_day_hour!P4="","",_tag_day_hour!P4)</f>
         <v/>
       </c>
-      <c r="R10" s="15" t="str">
+      <c r="R10" s="18" t="str">
         <f>IF(_tag_day_hour!Q4="","",_tag_day_hour!Q4)</f>
         <v/>
       </c>
-      <c r="S10" s="15" t="str">
+      <c r="S10" s="18" t="str">
         <f>IF(_tag_day_hour!R4="","",_tag_day_hour!R4)</f>
         <v/>
       </c>
-      <c r="T10" s="14" t="str">
+      <c r="T10" s="17" t="str">
         <f>IF(_tag_day_hour!S4="","",_tag_day_hour!S4)</f>
         <v/>
       </c>
-      <c r="U10" s="14" t="str">
+      <c r="U10" s="17" t="str">
         <f>IF(_tag_day_hour!T4="","",_tag_day_hour!T4)</f>
         <v/>
       </c>
-      <c r="V10" s="14" t="str">
+      <c r="V10" s="17" t="str">
         <f>IF(_tag_day_hour!U4="","",_tag_day_hour!U4)</f>
         <v/>
       </c>
-      <c r="W10" s="14" t="str">
+      <c r="W10" s="17" t="str">
         <f>IF(_tag_day_hour!V4="","",_tag_day_hour!V4)</f>
         <v/>
       </c>
-      <c r="X10" s="14" t="str">
+      <c r="X10" s="17" t="str">
         <f>IF(_tag_day_hour!W4="","",_tag_day_hour!W4)</f>
         <v/>
       </c>
-      <c r="Y10" s="15" t="str">
+      <c r="Y10" s="18" t="str">
         <f>IF(_tag_day_hour!X4="","",_tag_day_hour!X4)</f>
         <v/>
       </c>
-      <c r="Z10" s="14" t="str">
+      <c r="Z10" s="19" t="str">
         <f>IF(_tag_day_hour!Y4="","",_tag_day_hour!Y4)</f>
         <v/>
       </c>
-      <c r="AA10" s="14" t="str">
+      <c r="AA10" s="17" t="str">
         <f>IF(_tag_day_hour!Z4="","",_tag_day_hour!Z4)</f>
         <v/>
       </c>
-      <c r="AB10" s="15" t="str">
+      <c r="AB10" s="18" t="str">
         <f>IF(_tag_day_hour!AA4="","",_tag_day_hour!AA4)</f>
         <v/>
       </c>
-      <c r="AC10" s="15" t="str">
+      <c r="AC10" s="18" t="str">
         <f>IF(_tag_day_hour!AB4="","",_tag_day_hour!AB4)</f>
         <v/>
       </c>
-      <c r="AD10" s="28"/>
+      <c r="AD10" s="36"/>
     </row>
     <row r="11" s="6" customFormat="1" spans="1:30">
-      <c r="A11" s="13">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="14" t="str">
+      <c r="B11" s="17" t="str">
         <f>IF(_tag_day_hour!A5="","",_tag_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="17" t="str">
         <f>IF(_tag_day_hour!B5="","",_tag_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="17" t="str">
         <f>IF(_tag_day_hour!C5="","",_tag_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="E11" s="15" t="str">
+      <c r="E11" s="18" t="str">
         <f>IF(_tag_day_hour!D5="","",_tag_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="F11" s="14" t="str">
+      <c r="F11" s="17" t="str">
         <f>IF(_tag_day_hour!E5="","",_tag_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="17" t="str">
         <f>IF(_tag_day_hour!F5="","",_tag_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="19" t="str">
         <f>IF(_tag_day_hour!G5="","",_tag_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="I11" s="14" t="str">
+      <c r="I11" s="17" t="str">
         <f>IF(_tag_day_hour!H5="","",_tag_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="J11" s="14" t="str">
+      <c r="J11" s="17" t="str">
         <f>IF(_tag_day_hour!I5="","",_tag_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="K11" s="14" t="str">
+      <c r="K11" s="17" t="str">
         <f>IF(_tag_day_hour!J5="","",_tag_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="L11" s="14" t="str">
+      <c r="L11" s="17" t="str">
         <f>IF(_tag_day_hour!K5="","",_tag_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="M11" s="15" t="str">
+      <c r="M11" s="18" t="str">
         <f>IF(_tag_day_hour!L5="","",_tag_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="N11" s="15" t="str">
+      <c r="N11" s="18" t="str">
         <f>IF(_tag_day_hour!M5="","",_tag_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="O11" s="15" t="str">
+      <c r="O11" s="18" t="str">
         <f>IF(_tag_day_hour!N5="","",_tag_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="P11" s="15" t="str">
+      <c r="P11" s="18" t="str">
         <f>IF(_tag_day_hour!O5="","",_tag_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="Q11" s="14" t="str">
+      <c r="Q11" s="17" t="str">
         <f>IF(_tag_day_hour!P5="","",_tag_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="R11" s="15" t="str">
+      <c r="R11" s="18" t="str">
         <f>IF(_tag_day_hour!Q5="","",_tag_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="S11" s="15" t="str">
+      <c r="S11" s="18" t="str">
         <f>IF(_tag_day_hour!R5="","",_tag_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="T11" s="14" t="str">
+      <c r="T11" s="17" t="str">
         <f>IF(_tag_day_hour!S5="","",_tag_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="U11" s="14" t="str">
+      <c r="U11" s="17" t="str">
         <f>IF(_tag_day_hour!T5="","",_tag_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="V11" s="14" t="str">
+      <c r="V11" s="17" t="str">
         <f>IF(_tag_day_hour!U5="","",_tag_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="W11" s="14" t="str">
+      <c r="W11" s="17" t="str">
         <f>IF(_tag_day_hour!V5="","",_tag_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="X11" s="14" t="str">
+      <c r="X11" s="17" t="str">
         <f>IF(_tag_day_hour!W5="","",_tag_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Y11" s="15" t="str">
+      <c r="Y11" s="18" t="str">
         <f>IF(_tag_day_hour!X5="","",_tag_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="Z11" s="14" t="str">
+      <c r="Z11" s="19" t="str">
         <f>IF(_tag_day_hour!Y5="","",_tag_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AA11" s="14" t="str">
+      <c r="AA11" s="17" t="str">
         <f>IF(_tag_day_hour!Z5="","",_tag_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AB11" s="15" t="str">
+      <c r="AB11" s="18" t="str">
         <f>IF(_tag_day_hour!AA5="","",_tag_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AC11" s="15" t="str">
+      <c r="AC11" s="18" t="str">
         <f>IF(_tag_day_hour!AB5="","",_tag_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AD11" s="28"/>
+      <c r="AD11" s="36"/>
     </row>
     <row r="12" s="6" customFormat="1" spans="1:30">
-      <c r="A12" s="13">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="str">
+      <c r="B12" s="17" t="str">
         <f>IF(_tag_day_hour!A6="","",_tag_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="17" t="str">
         <f>IF(_tag_day_hour!B6="","",_tag_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="17" t="str">
         <f>IF(_tag_day_hour!C6="","",_tag_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="E12" s="15" t="str">
+      <c r="E12" s="18" t="str">
         <f>IF(_tag_day_hour!D6="","",_tag_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="F12" s="14" t="str">
+      <c r="F12" s="17" t="str">
         <f>IF(_tag_day_hour!E6="","",_tag_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="17" t="str">
         <f>IF(_tag_day_hour!F6="","",_tag_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="19" t="str">
         <f>IF(_tag_day_hour!G6="","",_tag_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="I12" s="14" t="str">
+      <c r="I12" s="17" t="str">
         <f>IF(_tag_day_hour!H6="","",_tag_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="J12" s="14" t="str">
+      <c r="J12" s="17" t="str">
         <f>IF(_tag_day_hour!I6="","",_tag_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="K12" s="14" t="str">
+      <c r="K12" s="17" t="str">
         <f>IF(_tag_day_hour!J6="","",_tag_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="L12" s="14" t="str">
+      <c r="L12" s="17" t="str">
         <f>IF(_tag_day_hour!K6="","",_tag_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="M12" s="15" t="str">
+      <c r="M12" s="18" t="str">
         <f>IF(_tag_day_hour!L6="","",_tag_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="N12" s="15" t="str">
+      <c r="N12" s="18" t="str">
         <f>IF(_tag_day_hour!M6="","",_tag_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="O12" s="15" t="str">
+      <c r="O12" s="18" t="str">
         <f>IF(_tag_day_hour!N6="","",_tag_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="P12" s="15" t="str">
+      <c r="P12" s="18" t="str">
         <f>IF(_tag_day_hour!O6="","",_tag_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="Q12" s="14" t="str">
+      <c r="Q12" s="17" t="str">
         <f>IF(_tag_day_hour!P6="","",_tag_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="R12" s="15" t="str">
+      <c r="R12" s="18" t="str">
         <f>IF(_tag_day_hour!Q6="","",_tag_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="S12" s="15" t="str">
+      <c r="S12" s="18" t="str">
         <f>IF(_tag_day_hour!R6="","",_tag_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="T12" s="14" t="str">
+      <c r="T12" s="17" t="str">
         <f>IF(_tag_day_hour!S6="","",_tag_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="U12" s="14" t="str">
+      <c r="U12" s="17" t="str">
         <f>IF(_tag_day_hour!T6="","",_tag_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="V12" s="14" t="str">
+      <c r="V12" s="17" t="str">
         <f>IF(_tag_day_hour!U6="","",_tag_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="W12" s="14" t="str">
+      <c r="W12" s="17" t="str">
         <f>IF(_tag_day_hour!V6="","",_tag_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="X12" s="14" t="str">
+      <c r="X12" s="17" t="str">
         <f>IF(_tag_day_hour!W6="","",_tag_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Y12" s="15" t="str">
+      <c r="Y12" s="18" t="str">
         <f>IF(_tag_day_hour!X6="","",_tag_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="Z12" s="14" t="str">
+      <c r="Z12" s="19" t="str">
         <f>IF(_tag_day_hour!Y6="","",_tag_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AA12" s="14" t="str">
+      <c r="AA12" s="17" t="str">
         <f>IF(_tag_day_hour!Z6="","",_tag_day_hour!Z6)</f>
         <v/>
       </c>
-      <c r="AB12" s="15" t="str">
+      <c r="AB12" s="18" t="str">
         <f>IF(_tag_day_hour!AA6="","",_tag_day_hour!AA6)</f>
         <v/>
       </c>
-      <c r="AC12" s="15" t="str">
+      <c r="AC12" s="18" t="str">
         <f>IF(_tag_day_hour!AB6="","",_tag_day_hour!AB6)</f>
         <v/>
       </c>
-      <c r="AD12" s="28"/>
+      <c r="AD12" s="36"/>
     </row>
     <row r="13" s="6" customFormat="1" spans="1:30">
-      <c r="A13" s="13">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="14" t="str">
+      <c r="B13" s="17" t="str">
         <f>IF(_tag_day_hour!A7="","",_tag_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="17" t="str">
         <f>IF(_tag_day_hour!B7="","",_tag_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="17" t="str">
         <f>IF(_tag_day_hour!C7="","",_tag_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="E13" s="15" t="str">
+      <c r="E13" s="18" t="str">
         <f>IF(_tag_day_hour!D7="","",_tag_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="F13" s="14" t="str">
+      <c r="F13" s="17" t="str">
         <f>IF(_tag_day_hour!E7="","",_tag_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="17" t="str">
         <f>IF(_tag_day_hour!F7="","",_tag_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="H13" s="14" t="str">
+      <c r="H13" s="19" t="str">
         <f>IF(_tag_day_hour!G7="","",_tag_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="I13" s="14" t="str">
+      <c r="I13" s="17" t="str">
         <f>IF(_tag_day_hour!H7="","",_tag_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="J13" s="14" t="str">
+      <c r="J13" s="17" t="str">
         <f>IF(_tag_day_hour!I7="","",_tag_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="K13" s="14" t="str">
+      <c r="K13" s="17" t="str">
         <f>IF(_tag_day_hour!J7="","",_tag_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="L13" s="14" t="str">
+      <c r="L13" s="17" t="str">
         <f>IF(_tag_day_hour!K7="","",_tag_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="M13" s="15" t="str">
+      <c r="M13" s="18" t="str">
         <f>IF(_tag_day_hour!L7="","",_tag_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="N13" s="15" t="str">
+      <c r="N13" s="18" t="str">
         <f>IF(_tag_day_hour!M7="","",_tag_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="O13" s="15" t="str">
+      <c r="O13" s="18" t="str">
         <f>IF(_tag_day_hour!N7="","",_tag_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="str">
+      <c r="P13" s="18" t="str">
         <f>IF(_tag_day_hour!O7="","",_tag_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="Q13" s="14" t="str">
+      <c r="Q13" s="17" t="str">
         <f>IF(_tag_day_hour!P7="","",_tag_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="R13" s="15" t="str">
+      <c r="R13" s="18" t="str">
         <f>IF(_tag_day_hour!Q7="","",_tag_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="S13" s="15" t="str">
+      <c r="S13" s="18" t="str">
         <f>IF(_tag_day_hour!R7="","",_tag_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="T13" s="14" t="str">
+      <c r="T13" s="17" t="str">
         <f>IF(_tag_day_hour!S7="","",_tag_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="U13" s="14" t="str">
+      <c r="U13" s="17" t="str">
         <f>IF(_tag_day_hour!T7="","",_tag_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="V13" s="14" t="str">
+      <c r="V13" s="17" t="str">
         <f>IF(_tag_day_hour!U7="","",_tag_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="W13" s="14" t="str">
+      <c r="W13" s="17" t="str">
         <f>IF(_tag_day_hour!V7="","",_tag_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="X13" s="14" t="str">
+      <c r="X13" s="17" t="str">
         <f>IF(_tag_day_hour!W7="","",_tag_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Y13" s="15" t="str">
+      <c r="Y13" s="18" t="str">
         <f>IF(_tag_day_hour!X7="","",_tag_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="Z13" s="14" t="str">
+      <c r="Z13" s="19" t="str">
         <f>IF(_tag_day_hour!Y7="","",_tag_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AA13" s="14" t="str">
+      <c r="AA13" s="17" t="str">
         <f>IF(_tag_day_hour!Z7="","",_tag_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AB13" s="15" t="str">
+      <c r="AB13" s="18" t="str">
         <f>IF(_tag_day_hour!AA7="","",_tag_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AC13" s="15" t="str">
+      <c r="AC13" s="18" t="str">
         <f>IF(_tag_day_hour!AB7="","",_tag_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AD13" s="28"/>
+      <c r="AD13" s="36"/>
     </row>
     <row r="14" s="6" customFormat="1" spans="1:30">
-      <c r="A14" s="13">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="str">
+      <c r="B14" s="17" t="str">
         <f>IF(_tag_day_hour!A8="","",_tag_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="C14" s="14" t="str">
+      <c r="C14" s="17" t="str">
         <f>IF(_tag_day_hour!B8="","",_tag_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(_tag_day_hour!C8="","",_tag_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="E14" s="15" t="str">
+      <c r="E14" s="18" t="str">
         <f>IF(_tag_day_hour!D8="","",_tag_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="F14" s="14" t="str">
+      <c r="F14" s="17" t="str">
         <f>IF(_tag_day_hour!E8="","",_tag_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="17" t="str">
         <f>IF(_tag_day_hour!F8="","",_tag_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="19" t="str">
         <f>IF(_tag_day_hour!G8="","",_tag_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="I14" s="14" t="str">
+      <c r="I14" s="17" t="str">
         <f>IF(_tag_day_hour!H8="","",_tag_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="J14" s="14" t="str">
+      <c r="J14" s="17" t="str">
         <f>IF(_tag_day_hour!I8="","",_tag_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="K14" s="14" t="str">
+      <c r="K14" s="17" t="str">
         <f>IF(_tag_day_hour!J8="","",_tag_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="L14" s="14" t="str">
+      <c r="L14" s="17" t="str">
         <f>IF(_tag_day_hour!K8="","",_tag_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="M14" s="15" t="str">
+      <c r="M14" s="18" t="str">
         <f>IF(_tag_day_hour!L8="","",_tag_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="N14" s="15" t="str">
+      <c r="N14" s="18" t="str">
         <f>IF(_tag_day_hour!M8="","",_tag_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="O14" s="15" t="str">
+      <c r="O14" s="18" t="str">
         <f>IF(_tag_day_hour!N8="","",_tag_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="P14" s="15" t="str">
+      <c r="P14" s="18" t="str">
         <f>IF(_tag_day_hour!O8="","",_tag_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="Q14" s="14" t="str">
+      <c r="Q14" s="17" t="str">
         <f>IF(_tag_day_hour!P8="","",_tag_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="R14" s="15" t="str">
+      <c r="R14" s="18" t="str">
         <f>IF(_tag_day_hour!Q8="","",_tag_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="S14" s="15" t="str">
+      <c r="S14" s="18" t="str">
         <f>IF(_tag_day_hour!R8="","",_tag_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="T14" s="14" t="str">
+      <c r="T14" s="17" t="str">
         <f>IF(_tag_day_hour!S8="","",_tag_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="U14" s="14" t="str">
+      <c r="U14" s="17" t="str">
         <f>IF(_tag_day_hour!T8="","",_tag_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="V14" s="14" t="str">
+      <c r="V14" s="17" t="str">
         <f>IF(_tag_day_hour!U8="","",_tag_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="W14" s="14" t="str">
+      <c r="W14" s="17" t="str">
         <f>IF(_tag_day_hour!V8="","",_tag_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="X14" s="14" t="str">
+      <c r="X14" s="17" t="str">
         <f>IF(_tag_day_hour!W8="","",_tag_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Y14" s="15" t="str">
+      <c r="Y14" s="18" t="str">
         <f>IF(_tag_day_hour!X8="","",_tag_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="Z14" s="14" t="str">
+      <c r="Z14" s="19" t="str">
         <f>IF(_tag_day_hour!Y8="","",_tag_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AA14" s="14" t="str">
+      <c r="AA14" s="17" t="str">
         <f>IF(_tag_day_hour!Z8="","",_tag_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AB14" s="15" t="str">
+      <c r="AB14" s="18" t="str">
         <f>IF(_tag_day_hour!AA8="","",_tag_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AC14" s="15" t="str">
+      <c r="AC14" s="18" t="str">
         <f>IF(_tag_day_hour!AB8="","",_tag_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AD14" s="28"/>
+      <c r="AD14" s="36"/>
     </row>
     <row r="15" s="6" customFormat="1" spans="1:30">
-      <c r="A15" s="13">
+      <c r="A15" s="16">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="str">
+      <c r="B15" s="17" t="str">
         <f>IF(_tag_day_hour!A9="","",_tag_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="17" t="str">
         <f>IF(_tag_day_hour!B9="","",_tag_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D15" s="17" t="str">
         <f>IF(_tag_day_hour!C9="","",_tag_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="E15" s="15" t="str">
+      <c r="E15" s="18" t="str">
         <f>IF(_tag_day_hour!D9="","",_tag_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="F15" s="14" t="str">
+      <c r="F15" s="17" t="str">
         <f>IF(_tag_day_hour!E9="","",_tag_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="17" t="str">
         <f>IF(_tag_day_hour!F9="","",_tag_day_hour!F9)</f>
         <v/>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="19" t="str">
         <f>IF(_tag_day_hour!G9="","",_tag_day_hour!G9)</f>
         <v/>
       </c>
-      <c r="I15" s="14" t="str">
+      <c r="I15" s="17" t="str">
         <f>IF(_tag_day_hour!H9="","",_tag_day_hour!H9)</f>
         <v/>
       </c>
-      <c r="J15" s="14" t="str">
+      <c r="J15" s="17" t="str">
         <f>IF(_tag_day_hour!I9="","",_tag_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="K15" s="14" t="str">
+      <c r="K15" s="17" t="str">
         <f>IF(_tag_day_hour!J9="","",_tag_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="L15" s="14" t="str">
+      <c r="L15" s="17" t="str">
         <f>IF(_tag_day_hour!K9="","",_tag_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="M15" s="15" t="str">
+      <c r="M15" s="18" t="str">
         <f>IF(_tag_day_hour!L9="","",_tag_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="N15" s="15" t="str">
+      <c r="N15" s="18" t="str">
         <f>IF(_tag_day_hour!M9="","",_tag_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="O15" s="15" t="str">
+      <c r="O15" s="18" t="str">
         <f>IF(_tag_day_hour!N9="","",_tag_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="P15" s="15" t="str">
+      <c r="P15" s="18" t="str">
         <f>IF(_tag_day_hour!O9="","",_tag_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="Q15" s="14" t="str">
+      <c r="Q15" s="17" t="str">
         <f>IF(_tag_day_hour!P9="","",_tag_day_hour!P9)</f>
         <v/>
       </c>
-      <c r="R15" s="15" t="str">
+      <c r="R15" s="18" t="str">
         <f>IF(_tag_day_hour!Q9="","",_tag_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="S15" s="15" t="str">
+      <c r="S15" s="18" t="str">
         <f>IF(_tag_day_hour!R9="","",_tag_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="T15" s="14" t="str">
+      <c r="T15" s="17" t="str">
         <f>IF(_tag_day_hour!S9="","",_tag_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="U15" s="14" t="str">
+      <c r="U15" s="17" t="str">
         <f>IF(_tag_day_hour!T9="","",_tag_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="V15" s="14" t="str">
+      <c r="V15" s="17" t="str">
         <f>IF(_tag_day_hour!U9="","",_tag_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="W15" s="14" t="str">
+      <c r="W15" s="17" t="str">
         <f>IF(_tag_day_hour!V9="","",_tag_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="X15" s="14" t="str">
+      <c r="X15" s="17" t="str">
         <f>IF(_tag_day_hour!W9="","",_tag_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Y15" s="15" t="str">
+      <c r="Y15" s="18" t="str">
         <f>IF(_tag_day_hour!X9="","",_tag_day_hour!X9)</f>
         <v/>
       </c>
-      <c r="Z15" s="14" t="str">
+      <c r="Z15" s="19" t="str">
         <f>IF(_tag_day_hour!Y9="","",_tag_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AA15" s="14" t="str">
+      <c r="AA15" s="17" t="str">
         <f>IF(_tag_day_hour!Z9="","",_tag_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AB15" s="15" t="str">
+      <c r="AB15" s="18" t="str">
         <f>IF(_tag_day_hour!AA9="","",_tag_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AC15" s="15" t="str">
+      <c r="AC15" s="18" t="str">
         <f>IF(_tag_day_hour!AB9="","",_tag_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AD15" s="28"/>
+      <c r="AD15" s="36"/>
     </row>
     <row r="16" s="6" customFormat="1" spans="1:30">
-      <c r="A16" s="13">
+      <c r="A16" s="16">
         <v>8</v>
       </c>
-      <c r="B16" s="14" t="str">
+      <c r="B16" s="17" t="str">
         <f>IF(_tag_day_hour!A10="","",_tag_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="17" t="str">
         <f>IF(_tag_day_hour!B10="","",_tag_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="D16" s="14" t="str">
+      <c r="D16" s="17" t="str">
         <f>IF(_tag_day_hour!C10="","",_tag_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="E16" s="15" t="str">
+      <c r="E16" s="18" t="str">
         <f>IF(_tag_day_hour!D10="","",_tag_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="F16" s="14" t="str">
+      <c r="F16" s="17" t="str">
         <f>IF(_tag_day_hour!E10="","",_tag_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="G16" s="14" t="str">
+      <c r="G16" s="17" t="str">
         <f>IF(_tag_day_hour!F10="","",_tag_day_hour!F10)</f>
         <v/>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="19" t="str">
         <f>IF(_tag_day_hour!G10="","",_tag_day_hour!G10)</f>
         <v/>
       </c>
-      <c r="I16" s="14" t="str">
+      <c r="I16" s="17" t="str">
         <f>IF(_tag_day_hour!H10="","",_tag_day_hour!H10)</f>
         <v/>
       </c>
-      <c r="J16" s="14" t="str">
+      <c r="J16" s="17" t="str">
         <f>IF(_tag_day_hour!I10="","",_tag_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="K16" s="14" t="str">
+      <c r="K16" s="17" t="str">
         <f>IF(_tag_day_hour!J10="","",_tag_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="L16" s="14" t="str">
+      <c r="L16" s="17" t="str">
         <f>IF(_tag_day_hour!K10="","",_tag_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="M16" s="15" t="str">
+      <c r="M16" s="18" t="str">
         <f>IF(_tag_day_hour!L10="","",_tag_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="N16" s="15" t="str">
+      <c r="N16" s="18" t="str">
         <f>IF(_tag_day_hour!M10="","",_tag_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="O16" s="15" t="str">
+      <c r="O16" s="18" t="str">
         <f>IF(_tag_day_hour!N10="","",_tag_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="P16" s="15" t="str">
+      <c r="P16" s="18" t="str">
         <f>IF(_tag_day_hour!O10="","",_tag_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="Q16" s="14" t="str">
+      <c r="Q16" s="17" t="str">
         <f>IF(_tag_day_hour!P10="","",_tag_day_hour!P10)</f>
         <v/>
       </c>
-      <c r="R16" s="15" t="str">
+      <c r="R16" s="18" t="str">
         <f>IF(_tag_day_hour!Q10="","",_tag_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="S16" s="15" t="str">
+      <c r="S16" s="18" t="str">
         <f>IF(_tag_day_hour!R10="","",_tag_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="T16" s="14" t="str">
+      <c r="T16" s="17" t="str">
         <f>IF(_tag_day_hour!S10="","",_tag_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="U16" s="14" t="str">
+      <c r="U16" s="17" t="str">
         <f>IF(_tag_day_hour!T10="","",_tag_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="V16" s="14" t="str">
+      <c r="V16" s="17" t="str">
         <f>IF(_tag_day_hour!U10="","",_tag_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="W16" s="14" t="str">
+      <c r="W16" s="17" t="str">
         <f>IF(_tag_day_hour!V10="","",_tag_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="X16" s="14" t="str">
+      <c r="X16" s="17" t="str">
         <f>IF(_tag_day_hour!W10="","",_tag_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Y16" s="15" t="str">
+      <c r="Y16" s="18" t="str">
         <f>IF(_tag_day_hour!X10="","",_tag_day_hour!X10)</f>
         <v/>
       </c>
-      <c r="Z16" s="14" t="str">
+      <c r="Z16" s="19" t="str">
         <f>IF(_tag_day_hour!Y10="","",_tag_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AA16" s="14" t="str">
+      <c r="AA16" s="17" t="str">
         <f>IF(_tag_day_hour!Z10="","",_tag_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AB16" s="15" t="str">
+      <c r="AB16" s="18" t="str">
         <f>IF(_tag_day_hour!AA10="","",_tag_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AC16" s="15" t="str">
+      <c r="AC16" s="18" t="str">
         <f>IF(_tag_day_hour!AB10="","",_tag_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AD16" s="27" t="s">
+      <c r="AD16" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" s="6" customFormat="1" spans="1:30">
-      <c r="A17" s="13">
+      <c r="A17" s="16">
         <v>9</v>
       </c>
-      <c r="B17" s="14" t="str">
+      <c r="B17" s="17" t="str">
         <f>IF(_tag_day_hour!A11="","",_tag_day_hour!A11)</f>
         <v/>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="17" t="str">
         <f>IF(_tag_day_hour!B11="","",_tag_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="D17" s="14" t="str">
+      <c r="D17" s="17" t="str">
         <f>IF(_tag_day_hour!C11="","",_tag_day_hour!C11)</f>
         <v/>
       </c>
-      <c r="E17" s="15" t="str">
+      <c r="E17" s="18" t="str">
         <f>IF(_tag_day_hour!D11="","",_tag_day_hour!D11)</f>
         <v/>
       </c>
-      <c r="F17" s="14" t="str">
+      <c r="F17" s="17" t="str">
         <f>IF(_tag_day_hour!E11="","",_tag_day_hour!E11)</f>
         <v/>
       </c>
-      <c r="G17" s="14" t="str">
+      <c r="G17" s="17" t="str">
         <f>IF(_tag_day_hour!F11="","",_tag_day_hour!F11)</f>
         <v/>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="19" t="str">
         <f>IF(_tag_day_hour!G11="","",_tag_day_hour!G11)</f>
         <v/>
       </c>
-      <c r="I17" s="14" t="str">
+      <c r="I17" s="17" t="str">
         <f>IF(_tag_day_hour!H11="","",_tag_day_hour!H11)</f>
         <v/>
       </c>
-      <c r="J17" s="14" t="str">
+      <c r="J17" s="17" t="str">
         <f>IF(_tag_day_hour!I11="","",_tag_day_hour!I11)</f>
         <v/>
       </c>
-      <c r="K17" s="14" t="str">
+      <c r="K17" s="17" t="str">
         <f>IF(_tag_day_hour!J11="","",_tag_day_hour!J11)</f>
         <v/>
       </c>
-      <c r="L17" s="14" t="str">
+      <c r="L17" s="17" t="str">
         <f>IF(_tag_day_hour!K11="","",_tag_day_hour!K11)</f>
         <v/>
       </c>
-      <c r="M17" s="15" t="str">
+      <c r="M17" s="18" t="str">
         <f>IF(_tag_day_hour!L11="","",_tag_day_hour!L11)</f>
         <v/>
       </c>
-      <c r="N17" s="15" t="str">
+      <c r="N17" s="18" t="str">
         <f>IF(_tag_day_hour!M11="","",_tag_day_hour!M11)</f>
         <v/>
       </c>
-      <c r="O17" s="15" t="str">
+      <c r="O17" s="18" t="str">
         <f>IF(_tag_day_hour!N11="","",_tag_day_hour!N11)</f>
         <v/>
       </c>
-      <c r="P17" s="15" t="str">
+      <c r="P17" s="18" t="str">
         <f>IF(_tag_day_hour!O11="","",_tag_day_hour!O11)</f>
         <v/>
       </c>
-      <c r="Q17" s="14" t="str">
+      <c r="Q17" s="17" t="str">
         <f>IF(_tag_day_hour!P11="","",_tag_day_hour!P11)</f>
         <v/>
       </c>
-      <c r="R17" s="15" t="str">
+      <c r="R17" s="18" t="str">
         <f>IF(_tag_day_hour!Q11="","",_tag_day_hour!Q11)</f>
         <v/>
       </c>
-      <c r="S17" s="15" t="str">
+      <c r="S17" s="18" t="str">
         <f>IF(_tag_day_hour!R11="","",_tag_day_hour!R11)</f>
         <v/>
       </c>
-      <c r="T17" s="14" t="str">
+      <c r="T17" s="17" t="str">
         <f>IF(_tag_day_hour!S11="","",_tag_day_hour!S11)</f>
         <v/>
       </c>
-      <c r="U17" s="14" t="str">
+      <c r="U17" s="17" t="str">
         <f>IF(_tag_day_hour!T11="","",_tag_day_hour!T11)</f>
         <v/>
       </c>
-      <c r="V17" s="14" t="str">
+      <c r="V17" s="17" t="str">
         <f>IF(_tag_day_hour!U11="","",_tag_day_hour!U11)</f>
         <v/>
       </c>
-      <c r="W17" s="14" t="str">
+      <c r="W17" s="17" t="str">
         <f>IF(_tag_day_hour!V11="","",_tag_day_hour!V11)</f>
         <v/>
       </c>
-      <c r="X17" s="14" t="str">
+      <c r="X17" s="17" t="str">
         <f>IF(_tag_day_hour!W11="","",_tag_day_hour!W11)</f>
         <v/>
       </c>
-      <c r="Y17" s="15" t="str">
+      <c r="Y17" s="18" t="str">
         <f>IF(_tag_day_hour!X11="","",_tag_day_hour!X11)</f>
         <v/>
       </c>
-      <c r="Z17" s="14" t="str">
+      <c r="Z17" s="19" t="str">
         <f>IF(_tag_day_hour!Y11="","",_tag_day_hour!Y11)</f>
         <v/>
       </c>
-      <c r="AA17" s="14" t="str">
+      <c r="AA17" s="17" t="str">
         <f>IF(_tag_day_hour!Z11="","",_tag_day_hour!Z11)</f>
         <v/>
       </c>
-      <c r="AB17" s="15" t="str">
+      <c r="AB17" s="18" t="str">
         <f>IF(_tag_day_hour!AA11="","",_tag_day_hour!AA11)</f>
         <v/>
       </c>
-      <c r="AC17" s="15" t="str">
+      <c r="AC17" s="18" t="str">
         <f>IF(_tag_day_hour!AB11="","",_tag_day_hour!AB11)</f>
         <v/>
       </c>
-      <c r="AD17" s="28"/>
+      <c r="AD17" s="36"/>
     </row>
     <row r="18" s="6" customFormat="1" spans="1:30">
-      <c r="A18" s="13">
+      <c r="A18" s="16">
         <v>10</v>
       </c>
-      <c r="B18" s="14" t="str">
+      <c r="B18" s="17" t="str">
         <f>IF(_tag_day_hour!A12="","",_tag_day_hour!A12)</f>
         <v/>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="17" t="str">
         <f>IF(_tag_day_hour!B12="","",_tag_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="D18" s="14" t="str">
+      <c r="D18" s="17" t="str">
         <f>IF(_tag_day_hour!C12="","",_tag_day_hour!C12)</f>
         <v/>
       </c>
-      <c r="E18" s="15" t="str">
+      <c r="E18" s="18" t="str">
         <f>IF(_tag_day_hour!D12="","",_tag_day_hour!D12)</f>
         <v/>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="17" t="str">
         <f>IF(_tag_day_hour!E12="","",_tag_day_hour!E12)</f>
         <v/>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="17" t="str">
         <f>IF(_tag_day_hour!F12="","",_tag_day_hour!F12)</f>
         <v/>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="19" t="str">
         <f>IF(_tag_day_hour!G12="","",_tag_day_hour!G12)</f>
         <v/>
       </c>
-      <c r="I18" s="14" t="str">
+      <c r="I18" s="17" t="str">
         <f>IF(_tag_day_hour!H12="","",_tag_day_hour!H12)</f>
         <v/>
       </c>
-      <c r="J18" s="14" t="str">
+      <c r="J18" s="17" t="str">
         <f>IF(_tag_day_hour!I12="","",_tag_day_hour!I12)</f>
         <v/>
       </c>
-      <c r="K18" s="14" t="str">
+      <c r="K18" s="17" t="str">
         <f>IF(_tag_day_hour!J12="","",_tag_day_hour!J12)</f>
         <v/>
       </c>
-      <c r="L18" s="14" t="str">
+      <c r="L18" s="17" t="str">
         <f>IF(_tag_day_hour!K12="","",_tag_day_hour!K12)</f>
         <v/>
       </c>
-      <c r="M18" s="15" t="str">
+      <c r="M18" s="18" t="str">
         <f>IF(_tag_day_hour!L12="","",_tag_day_hour!L12)</f>
         <v/>
       </c>
-      <c r="N18" s="15" t="str">
+      <c r="N18" s="18" t="str">
         <f>IF(_tag_day_hour!M12="","",_tag_day_hour!M12)</f>
         <v/>
       </c>
-      <c r="O18" s="15" t="str">
+      <c r="O18" s="18" t="str">
         <f>IF(_tag_day_hour!N12="","",_tag_day_hour!N12)</f>
         <v/>
       </c>
-      <c r="P18" s="15" t="str">
+      <c r="P18" s="18" t="str">
         <f>IF(_tag_day_hour!O12="","",_tag_day_hour!O12)</f>
         <v/>
       </c>
-      <c r="Q18" s="14" t="str">
+      <c r="Q18" s="17" t="str">
         <f>IF(_tag_day_hour!P12="","",_tag_day_hour!P12)</f>
         <v/>
       </c>
-      <c r="R18" s="15" t="str">
+      <c r="R18" s="18" t="str">
         <f>IF(_tag_day_hour!Q12="","",_tag_day_hour!Q12)</f>
         <v/>
       </c>
-      <c r="S18" s="15" t="str">
+      <c r="S18" s="18" t="str">
         <f>IF(_tag_day_hour!R12="","",_tag_day_hour!R12)</f>
         <v/>
       </c>
-      <c r="T18" s="14" t="str">
+      <c r="T18" s="17" t="str">
         <f>IF(_tag_day_hour!S12="","",_tag_day_hour!S12)</f>
         <v/>
       </c>
-      <c r="U18" s="14" t="str">
+      <c r="U18" s="17" t="str">
         <f>IF(_tag_day_hour!T12="","",_tag_day_hour!T12)</f>
         <v/>
       </c>
-      <c r="V18" s="14" t="str">
+      <c r="V18" s="17" t="str">
         <f>IF(_tag_day_hour!U12="","",_tag_day_hour!U12)</f>
         <v/>
       </c>
-      <c r="W18" s="14" t="str">
+      <c r="W18" s="17" t="str">
         <f>IF(_tag_day_hour!V12="","",_tag_day_hour!V12)</f>
         <v/>
       </c>
-      <c r="X18" s="14" t="str">
+      <c r="X18" s="17" t="str">
         <f>IF(_tag_day_hour!W12="","",_tag_day_hour!W12)</f>
         <v/>
       </c>
-      <c r="Y18" s="15" t="str">
+      <c r="Y18" s="18" t="str">
         <f>IF(_tag_day_hour!X12="","",_tag_day_hour!X12)</f>
         <v/>
       </c>
-      <c r="Z18" s="14" t="str">
+      <c r="Z18" s="19" t="str">
         <f>IF(_tag_day_hour!Y12="","",_tag_day_hour!Y12)</f>
         <v/>
       </c>
-      <c r="AA18" s="14" t="str">
+      <c r="AA18" s="17" t="str">
         <f>IF(_tag_day_hour!Z12="","",_tag_day_hour!Z12)</f>
         <v/>
       </c>
-      <c r="AB18" s="15" t="str">
+      <c r="AB18" s="18" t="str">
         <f>IF(_tag_day_hour!AA12="","",_tag_day_hour!AA12)</f>
         <v/>
       </c>
-      <c r="AC18" s="15" t="str">
+      <c r="AC18" s="18" t="str">
         <f>IF(_tag_day_hour!AB12="","",_tag_day_hour!AB12)</f>
         <v/>
       </c>
-      <c r="AD18" s="28"/>
+      <c r="AD18" s="36"/>
     </row>
     <row r="19" s="6" customFormat="1" spans="1:30">
-      <c r="A19" s="13">
+      <c r="A19" s="16">
         <v>11</v>
       </c>
-      <c r="B19" s="14" t="str">
+      <c r="B19" s="17" t="str">
         <f>IF(_tag_day_hour!A13="","",_tag_day_hour!A13)</f>
         <v/>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="17" t="str">
         <f>IF(_tag_day_hour!B13="","",_tag_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="D19" s="14" t="str">
+      <c r="D19" s="17" t="str">
         <f>IF(_tag_day_hour!C13="","",_tag_day_hour!C13)</f>
         <v/>
       </c>
-      <c r="E19" s="15" t="str">
+      <c r="E19" s="18" t="str">
         <f>IF(_tag_day_hour!D13="","",_tag_day_hour!D13)</f>
         <v/>
       </c>
-      <c r="F19" s="14" t="str">
+      <c r="F19" s="17" t="str">
         <f>IF(_tag_day_hour!E13="","",_tag_day_hour!E13)</f>
         <v/>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="17" t="str">
         <f>IF(_tag_day_hour!F13="","",_tag_day_hour!F13)</f>
         <v/>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H19" s="19" t="str">
         <f>IF(_tag_day_hour!G13="","",_tag_day_hour!G13)</f>
         <v/>
       </c>
-      <c r="I19" s="14" t="str">
+      <c r="I19" s="17" t="str">
         <f>IF(_tag_day_hour!H13="","",_tag_day_hour!H13)</f>
         <v/>
       </c>
-      <c r="J19" s="14" t="str">
+      <c r="J19" s="17" t="str">
         <f>IF(_tag_day_hour!I13="","",_tag_day_hour!I13)</f>
         <v/>
       </c>
-      <c r="K19" s="14" t="str">
+      <c r="K19" s="17" t="str">
         <f>IF(_tag_day_hour!J13="","",_tag_day_hour!J13)</f>
         <v/>
       </c>
-      <c r="L19" s="14" t="str">
+      <c r="L19" s="17" t="str">
         <f>IF(_tag_day_hour!K13="","",_tag_day_hour!K13)</f>
         <v/>
       </c>
-      <c r="M19" s="15" t="str">
+      <c r="M19" s="18" t="str">
         <f>IF(_tag_day_hour!L13="","",_tag_day_hour!L13)</f>
         <v/>
       </c>
-      <c r="N19" s="15" t="str">
+      <c r="N19" s="18" t="str">
         <f>IF(_tag_day_hour!M13="","",_tag_day_hour!M13)</f>
         <v/>
       </c>
-      <c r="O19" s="15" t="str">
+      <c r="O19" s="18" t="str">
         <f>IF(_tag_day_hour!N13="","",_tag_day_hour!N13)</f>
         <v/>
       </c>
-      <c r="P19" s="15" t="str">
+      <c r="P19" s="18" t="str">
         <f>IF(_tag_day_hour!O13="","",_tag_day_hour!O13)</f>
         <v/>
       </c>
-      <c r="Q19" s="14" t="str">
+      <c r="Q19" s="17" t="str">
         <f>IF(_tag_day_hour!P13="","",_tag_day_hour!P13)</f>
         <v/>
       </c>
-      <c r="R19" s="15" t="str">
+      <c r="R19" s="18" t="str">
         <f>IF(_tag_day_hour!Q13="","",_tag_day_hour!Q13)</f>
         <v/>
       </c>
-      <c r="S19" s="15" t="str">
+      <c r="S19" s="18" t="str">
         <f>IF(_tag_day_hour!R13="","",_tag_day_hour!R13)</f>
         <v/>
       </c>
-      <c r="T19" s="14" t="str">
+      <c r="T19" s="17" t="str">
         <f>IF(_tag_day_hour!S13="","",_tag_day_hour!S13)</f>
         <v/>
       </c>
-      <c r="U19" s="14" t="str">
+      <c r="U19" s="17" t="str">
         <f>IF(_tag_day_hour!T13="","",_tag_day_hour!T13)</f>
         <v/>
       </c>
-      <c r="V19" s="14" t="str">
+      <c r="V19" s="17" t="str">
         <f>IF(_tag_day_hour!U13="","",_tag_day_hour!U13)</f>
         <v/>
       </c>
-      <c r="W19" s="14" t="str">
+      <c r="W19" s="17" t="str">
         <f>IF(_tag_day_hour!V13="","",_tag_day_hour!V13)</f>
         <v/>
       </c>
-      <c r="X19" s="14" t="str">
+      <c r="X19" s="17" t="str">
         <f>IF(_tag_day_hour!W13="","",_tag_day_hour!W13)</f>
         <v/>
       </c>
-      <c r="Y19" s="15" t="str">
+      <c r="Y19" s="18" t="str">
         <f>IF(_tag_day_hour!X13="","",_tag_day_hour!X13)</f>
         <v/>
       </c>
-      <c r="Z19" s="14" t="str">
+      <c r="Z19" s="19" t="str">
         <f>IF(_tag_day_hour!Y13="","",_tag_day_hour!Y13)</f>
         <v/>
       </c>
-      <c r="AA19" s="14" t="str">
+      <c r="AA19" s="17" t="str">
         <f>IF(_tag_day_hour!Z13="","",_tag_day_hour!Z13)</f>
         <v/>
       </c>
-      <c r="AB19" s="15" t="str">
+      <c r="AB19" s="18" t="str">
         <f>IF(_tag_day_hour!AA13="","",_tag_day_hour!AA13)</f>
         <v/>
       </c>
-      <c r="AC19" s="15" t="str">
+      <c r="AC19" s="18" t="str">
         <f>IF(_tag_day_hour!AB13="","",_tag_day_hour!AB13)</f>
         <v/>
       </c>
-      <c r="AD19" s="28"/>
+      <c r="AD19" s="36"/>
     </row>
     <row r="20" s="6" customFormat="1" spans="1:30">
-      <c r="A20" s="13">
+      <c r="A20" s="16">
         <v>12</v>
       </c>
-      <c r="B20" s="14" t="str">
+      <c r="B20" s="17" t="str">
         <f>IF(_tag_day_hour!A14="","",_tag_day_hour!A14)</f>
         <v/>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="17" t="str">
         <f>IF(_tag_day_hour!B14="","",_tag_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="17" t="str">
         <f>IF(_tag_day_hour!C14="","",_tag_day_hour!C14)</f>
         <v/>
       </c>
-      <c r="E20" s="15" t="str">
+      <c r="E20" s="18" t="str">
         <f>IF(_tag_day_hour!D14="","",_tag_day_hour!D14)</f>
         <v/>
       </c>
-      <c r="F20" s="14" t="str">
+      <c r="F20" s="17" t="str">
         <f>IF(_tag_day_hour!E14="","",_tag_day_hour!E14)</f>
         <v/>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="17" t="str">
         <f>IF(_tag_day_hour!F14="","",_tag_day_hour!F14)</f>
         <v/>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="19" t="str">
         <f>IF(_tag_day_hour!G14="","",_tag_day_hour!G14)</f>
         <v/>
       </c>
-      <c r="I20" s="14" t="str">
+      <c r="I20" s="17" t="str">
         <f>IF(_tag_day_hour!H14="","",_tag_day_hour!H14)</f>
         <v/>
       </c>
-      <c r="J20" s="14" t="str">
+      <c r="J20" s="17" t="str">
         <f>IF(_tag_day_hour!I14="","",_tag_day_hour!I14)</f>
         <v/>
       </c>
-      <c r="K20" s="14" t="str">
+      <c r="K20" s="17" t="str">
         <f>IF(_tag_day_hour!J14="","",_tag_day_hour!J14)</f>
         <v/>
       </c>
-      <c r="L20" s="14" t="str">
+      <c r="L20" s="17" t="str">
         <f>IF(_tag_day_hour!K14="","",_tag_day_hour!K14)</f>
         <v/>
       </c>
-      <c r="M20" s="15" t="str">
+      <c r="M20" s="18" t="str">
         <f>IF(_tag_day_hour!L14="","",_tag_day_hour!L14)</f>
         <v/>
       </c>
-      <c r="N20" s="15" t="str">
+      <c r="N20" s="18" t="str">
         <f>IF(_tag_day_hour!M14="","",_tag_day_hour!M14)</f>
         <v/>
       </c>
-      <c r="O20" s="15" t="str">
+      <c r="O20" s="18" t="str">
         <f>IF(_tag_day_hour!N14="","",_tag_day_hour!N14)</f>
         <v/>
       </c>
-      <c r="P20" s="15" t="str">
+      <c r="P20" s="18" t="str">
         <f>IF(_tag_day_hour!O14="","",_tag_day_hour!O14)</f>
         <v/>
       </c>
-      <c r="Q20" s="14" t="str">
+      <c r="Q20" s="17" t="str">
         <f>IF(_tag_day_hour!P14="","",_tag_day_hour!P14)</f>
         <v/>
       </c>
-      <c r="R20" s="15" t="str">
+      <c r="R20" s="18" t="str">
         <f>IF(_tag_day_hour!Q14="","",_tag_day_hour!Q14)</f>
         <v/>
       </c>
-      <c r="S20" s="15" t="str">
+      <c r="S20" s="18" t="str">
         <f>IF(_tag_day_hour!R14="","",_tag_day_hour!R14)</f>
         <v/>
       </c>
-      <c r="T20" s="14" t="str">
+      <c r="T20" s="17" t="str">
         <f>IF(_tag_day_hour!S14="","",_tag_day_hour!S14)</f>
         <v/>
       </c>
-      <c r="U20" s="14" t="str">
+      <c r="U20" s="17" t="str">
         <f>IF(_tag_day_hour!T14="","",_tag_day_hour!T14)</f>
         <v/>
       </c>
-      <c r="V20" s="14" t="str">
+      <c r="V20" s="17" t="str">
         <f>IF(_tag_day_hour!U14="","",_tag_day_hour!U14)</f>
         <v/>
       </c>
-      <c r="W20" s="14" t="str">
+      <c r="W20" s="17" t="str">
         <f>IF(_tag_day_hour!V14="","",_tag_day_hour!V14)</f>
         <v/>
       </c>
-      <c r="X20" s="14" t="str">
+      <c r="X20" s="17" t="str">
         <f>IF(_tag_day_hour!W14="","",_tag_day_hour!W14)</f>
         <v/>
       </c>
-      <c r="Y20" s="15" t="str">
+      <c r="Y20" s="18" t="str">
         <f>IF(_tag_day_hour!X14="","",_tag_day_hour!X14)</f>
         <v/>
       </c>
-      <c r="Z20" s="14" t="str">
+      <c r="Z20" s="19" t="str">
         <f>IF(_tag_day_hour!Y14="","",_tag_day_hour!Y14)</f>
         <v/>
       </c>
-      <c r="AA20" s="14" t="str">
+      <c r="AA20" s="17" t="str">
         <f>IF(_tag_day_hour!Z14="","",_tag_day_hour!Z14)</f>
         <v/>
       </c>
-      <c r="AB20" s="15" t="str">
+      <c r="AB20" s="18" t="str">
         <f>IF(_tag_day_hour!AA14="","",_tag_day_hour!AA14)</f>
         <v/>
       </c>
-      <c r="AC20" s="15" t="str">
+      <c r="AC20" s="18" t="str">
         <f>IF(_tag_day_hour!AB14="","",_tag_day_hour!AB14)</f>
         <v/>
       </c>
-      <c r="AD20" s="28"/>
+      <c r="AD20" s="36"/>
     </row>
     <row r="21" s="6" customFormat="1" spans="1:30">
-      <c r="A21" s="13">
+      <c r="A21" s="16">
         <v>13</v>
       </c>
-      <c r="B21" s="14" t="str">
+      <c r="B21" s="17" t="str">
         <f>IF(_tag_day_hour!A15="","",_tag_day_hour!A15)</f>
         <v/>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C21" s="17" t="str">
         <f>IF(_tag_day_hour!B15="","",_tag_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D21" s="17" t="str">
         <f>IF(_tag_day_hour!C15="","",_tag_day_hour!C15)</f>
         <v/>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E21" s="18" t="str">
         <f>IF(_tag_day_hour!D15="","",_tag_day_hour!D15)</f>
         <v/>
       </c>
-      <c r="F21" s="14" t="str">
+      <c r="F21" s="17" t="str">
         <f>IF(_tag_day_hour!E15="","",_tag_day_hour!E15)</f>
         <v/>
       </c>
-      <c r="G21" s="14" t="str">
+      <c r="G21" s="17" t="str">
         <f>IF(_tag_day_hour!F15="","",_tag_day_hour!F15)</f>
         <v/>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="19" t="str">
         <f>IF(_tag_day_hour!G15="","",_tag_day_hour!G15)</f>
         <v/>
       </c>
-      <c r="I21" s="14" t="str">
+      <c r="I21" s="17" t="str">
         <f>IF(_tag_day_hour!H15="","",_tag_day_hour!H15)</f>
         <v/>
       </c>
-      <c r="J21" s="14" t="str">
+      <c r="J21" s="17" t="str">
         <f>IF(_tag_day_hour!I15="","",_tag_day_hour!I15)</f>
         <v/>
       </c>
-      <c r="K21" s="14" t="str">
+      <c r="K21" s="17" t="str">
         <f>IF(_tag_day_hour!J15="","",_tag_day_hour!J15)</f>
         <v/>
       </c>
-      <c r="L21" s="14" t="str">
+      <c r="L21" s="17" t="str">
         <f>IF(_tag_day_hour!K15="","",_tag_day_hour!K15)</f>
         <v/>
       </c>
-      <c r="M21" s="15" t="str">
+      <c r="M21" s="18" t="str">
         <f>IF(_tag_day_hour!L15="","",_tag_day_hour!L15)</f>
         <v/>
       </c>
-      <c r="N21" s="15" t="str">
+      <c r="N21" s="18" t="str">
         <f>IF(_tag_day_hour!M15="","",_tag_day_hour!M15)</f>
         <v/>
       </c>
-      <c r="O21" s="15" t="str">
+      <c r="O21" s="18" t="str">
         <f>IF(_tag_day_hour!N15="","",_tag_day_hour!N15)</f>
         <v/>
       </c>
-      <c r="P21" s="15" t="str">
+      <c r="P21" s="18" t="str">
         <f>IF(_tag_day_hour!O15="","",_tag_day_hour!O15)</f>
         <v/>
       </c>
-      <c r="Q21" s="14" t="str">
+      <c r="Q21" s="17" t="str">
         <f>IF(_tag_day_hour!P15="","",_tag_day_hour!P15)</f>
         <v/>
       </c>
-      <c r="R21" s="15" t="str">
+      <c r="R21" s="18" t="str">
         <f>IF(_tag_day_hour!Q15="","",_tag_day_hour!Q15)</f>
         <v/>
       </c>
-      <c r="S21" s="15" t="str">
+      <c r="S21" s="18" t="str">
         <f>IF(_tag_day_hour!R15="","",_tag_day_hour!R15)</f>
         <v/>
       </c>
-      <c r="T21" s="14" t="str">
+      <c r="T21" s="17" t="str">
         <f>IF(_tag_day_hour!S15="","",_tag_day_hour!S15)</f>
         <v/>
       </c>
-      <c r="U21" s="14" t="str">
+      <c r="U21" s="17" t="str">
         <f>IF(_tag_day_hour!T15="","",_tag_day_hour!T15)</f>
         <v/>
       </c>
-      <c r="V21" s="14" t="str">
+      <c r="V21" s="17" t="str">
         <f>IF(_tag_day_hour!U15="","",_tag_day_hour!U15)</f>
         <v/>
       </c>
-      <c r="W21" s="14" t="str">
+      <c r="W21" s="17" t="str">
         <f>IF(_tag_day_hour!V15="","",_tag_day_hour!V15)</f>
         <v/>
       </c>
-      <c r="X21" s="14" t="str">
+      <c r="X21" s="17" t="str">
         <f>IF(_tag_day_hour!W15="","",_tag_day_hour!W15)</f>
         <v/>
       </c>
-      <c r="Y21" s="15" t="str">
+      <c r="Y21" s="18" t="str">
         <f>IF(_tag_day_hour!X15="","",_tag_day_hour!X15)</f>
         <v/>
       </c>
-      <c r="Z21" s="14" t="str">
+      <c r="Z21" s="19" t="str">
         <f>IF(_tag_day_hour!Y15="","",_tag_day_hour!Y15)</f>
         <v/>
       </c>
-      <c r="AA21" s="14" t="str">
+      <c r="AA21" s="17" t="str">
         <f>IF(_tag_day_hour!Z15="","",_tag_day_hour!Z15)</f>
         <v/>
       </c>
-      <c r="AB21" s="15" t="str">
+      <c r="AB21" s="18" t="str">
         <f>IF(_tag_day_hour!AA15="","",_tag_day_hour!AA15)</f>
         <v/>
       </c>
-      <c r="AC21" s="15" t="str">
+      <c r="AC21" s="18" t="str">
         <f>IF(_tag_day_hour!AB15="","",_tag_day_hour!AB15)</f>
         <v/>
       </c>
-      <c r="AD21" s="28"/>
+      <c r="AD21" s="36"/>
     </row>
     <row r="22" s="6" customFormat="1" spans="1:30">
-      <c r="A22" s="13">
+      <c r="A22" s="16">
         <v>14</v>
       </c>
-      <c r="B22" s="14" t="str">
+      <c r="B22" s="17" t="str">
         <f>IF(_tag_day_hour!A16="","",_tag_day_hour!A16)</f>
         <v/>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C22" s="17" t="str">
         <f>IF(_tag_day_hour!B16="","",_tag_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D22" s="17" t="str">
         <f>IF(_tag_day_hour!C16="","",_tag_day_hour!C16)</f>
         <v/>
       </c>
-      <c r="E22" s="15" t="str">
+      <c r="E22" s="18" t="str">
         <f>IF(_tag_day_hour!D16="","",_tag_day_hour!D16)</f>
         <v/>
       </c>
-      <c r="F22" s="14" t="str">
+      <c r="F22" s="17" t="str">
         <f>IF(_tag_day_hour!E16="","",_tag_day_hour!E16)</f>
         <v/>
       </c>
-      <c r="G22" s="14" t="str">
+      <c r="G22" s="17" t="str">
         <f>IF(_tag_day_hour!F16="","",_tag_day_hour!F16)</f>
         <v/>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="19" t="str">
         <f>IF(_tag_day_hour!G16="","",_tag_day_hour!G16)</f>
         <v/>
       </c>
-      <c r="I22" s="14" t="str">
+      <c r="I22" s="17" t="str">
         <f>IF(_tag_day_hour!H16="","",_tag_day_hour!H16)</f>
         <v/>
       </c>
-      <c r="J22" s="14" t="str">
+      <c r="J22" s="17" t="str">
         <f>IF(_tag_day_hour!I16="","",_tag_day_hour!I16)</f>
         <v/>
       </c>
-      <c r="K22" s="14" t="str">
+      <c r="K22" s="17" t="str">
         <f>IF(_tag_day_hour!J16="","",_tag_day_hour!J16)</f>
         <v/>
       </c>
-      <c r="L22" s="14" t="str">
+      <c r="L22" s="17" t="str">
         <f>IF(_tag_day_hour!K16="","",_tag_day_hour!K16)</f>
         <v/>
       </c>
-      <c r="M22" s="15" t="str">
+      <c r="M22" s="18" t="str">
         <f>IF(_tag_day_hour!L16="","",_tag_day_hour!L16)</f>
         <v/>
       </c>
-      <c r="N22" s="15" t="str">
+      <c r="N22" s="18" t="str">
         <f>IF(_tag_day_hour!M16="","",_tag_day_hour!M16)</f>
         <v/>
       </c>
-      <c r="O22" s="15" t="str">
+      <c r="O22" s="18" t="str">
         <f>IF(_tag_day_hour!N16="","",_tag_day_hour!N16)</f>
         <v/>
       </c>
-      <c r="P22" s="15" t="str">
+      <c r="P22" s="18" t="str">
         <f>IF(_tag_day_hour!O16="","",_tag_day_hour!O16)</f>
         <v/>
       </c>
-      <c r="Q22" s="14" t="str">
+      <c r="Q22" s="17" t="str">
         <f>IF(_tag_day_hour!P16="","",_tag_day_hour!P16)</f>
         <v/>
       </c>
-      <c r="R22" s="15" t="str">
+      <c r="R22" s="18" t="str">
         <f>IF(_tag_day_hour!Q16="","",_tag_day_hour!Q16)</f>
         <v/>
       </c>
-      <c r="S22" s="15" t="str">
+      <c r="S22" s="18" t="str">
         <f>IF(_tag_day_hour!R16="","",_tag_day_hour!R16)</f>
         <v/>
       </c>
-      <c r="T22" s="14" t="str">
+      <c r="T22" s="17" t="str">
         <f>IF(_tag_day_hour!S16="","",_tag_day_hour!S16)</f>
         <v/>
       </c>
-      <c r="U22" s="14" t="str">
+      <c r="U22" s="17" t="str">
         <f>IF(_tag_day_hour!T16="","",_tag_day_hour!T16)</f>
         <v/>
       </c>
-      <c r="V22" s="14" t="str">
+      <c r="V22" s="17" t="str">
         <f>IF(_tag_day_hour!U16="","",_tag_day_hour!U16)</f>
         <v/>
       </c>
-      <c r="W22" s="14" t="str">
+      <c r="W22" s="17" t="str">
         <f>IF(_tag_day_hour!V16="","",_tag_day_hour!V16)</f>
         <v/>
       </c>
-      <c r="X22" s="14" t="str">
+      <c r="X22" s="17" t="str">
         <f>IF(_tag_day_hour!W16="","",_tag_day_hour!W16)</f>
         <v/>
       </c>
-      <c r="Y22" s="15" t="str">
+      <c r="Y22" s="18" t="str">
         <f>IF(_tag_day_hour!X16="","",_tag_day_hour!X16)</f>
         <v/>
       </c>
-      <c r="Z22" s="14" t="str">
+      <c r="Z22" s="19" t="str">
         <f>IF(_tag_day_hour!Y16="","",_tag_day_hour!Y16)</f>
         <v/>
       </c>
-      <c r="AA22" s="14" t="str">
+      <c r="AA22" s="17" t="str">
         <f>IF(_tag_day_hour!Z16="","",_tag_day_hour!Z16)</f>
         <v/>
       </c>
-      <c r="AB22" s="15" t="str">
+      <c r="AB22" s="18" t="str">
         <f>IF(_tag_day_hour!AA16="","",_tag_day_hour!AA16)</f>
         <v/>
       </c>
-      <c r="AC22" s="15" t="str">
+      <c r="AC22" s="18" t="str">
         <f>IF(_tag_day_hour!AB16="","",_tag_day_hour!AB16)</f>
         <v/>
       </c>
-      <c r="AD22" s="28"/>
+      <c r="AD22" s="36"/>
     </row>
     <row r="23" s="6" customFormat="1" spans="1:30">
-      <c r="A23" s="13">
+      <c r="A23" s="16">
         <v>15</v>
       </c>
-      <c r="B23" s="14" t="str">
+      <c r="B23" s="17" t="str">
         <f>IF(_tag_day_hour!A17="","",_tag_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C23" s="17" t="str">
         <f>IF(_tag_day_hour!B17="","",_tag_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D23" s="17" t="str">
         <f>IF(_tag_day_hour!C17="","",_tag_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="E23" s="15" t="str">
+      <c r="E23" s="18" t="str">
         <f>IF(_tag_day_hour!D17="","",_tag_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="F23" s="14" t="str">
+      <c r="F23" s="17" t="str">
         <f>IF(_tag_day_hour!E17="","",_tag_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="G23" s="14" t="str">
+      <c r="G23" s="17" t="str">
         <f>IF(_tag_day_hour!F17="","",_tag_day_hour!F17)</f>
         <v/>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="19" t="str">
         <f>IF(_tag_day_hour!G17="","",_tag_day_hour!G17)</f>
         <v/>
       </c>
-      <c r="I23" s="14" t="str">
+      <c r="I23" s="17" t="str">
         <f>IF(_tag_day_hour!H17="","",_tag_day_hour!H17)</f>
         <v/>
       </c>
-      <c r="J23" s="14" t="str">
+      <c r="J23" s="17" t="str">
         <f>IF(_tag_day_hour!I17="","",_tag_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="K23" s="14" t="str">
+      <c r="K23" s="17" t="str">
         <f>IF(_tag_day_hour!J17="","",_tag_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="L23" s="14" t="str">
+      <c r="L23" s="17" t="str">
         <f>IF(_tag_day_hour!K17="","",_tag_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="M23" s="15" t="str">
+      <c r="M23" s="18" t="str">
         <f>IF(_tag_day_hour!L17="","",_tag_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="N23" s="15" t="str">
+      <c r="N23" s="18" t="str">
         <f>IF(_tag_day_hour!M17="","",_tag_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="O23" s="15" t="str">
+      <c r="O23" s="18" t="str">
         <f>IF(_tag_day_hour!N17="","",_tag_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="P23" s="15" t="str">
+      <c r="P23" s="18" t="str">
         <f>IF(_tag_day_hour!O17="","",_tag_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="Q23" s="14" t="str">
+      <c r="Q23" s="17" t="str">
         <f>IF(_tag_day_hour!P17="","",_tag_day_hour!P17)</f>
         <v/>
       </c>
-      <c r="R23" s="15" t="str">
+      <c r="R23" s="18" t="str">
         <f>IF(_tag_day_hour!Q17="","",_tag_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="S23" s="15" t="str">
+      <c r="S23" s="18" t="str">
         <f>IF(_tag_day_hour!R17="","",_tag_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="T23" s="14" t="str">
+      <c r="T23" s="17" t="str">
         <f>IF(_tag_day_hour!S17="","",_tag_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="U23" s="14" t="str">
+      <c r="U23" s="17" t="str">
         <f>IF(_tag_day_hour!T17="","",_tag_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="V23" s="14" t="str">
+      <c r="V23" s="17" t="str">
         <f>IF(_tag_day_hour!U17="","",_tag_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="W23" s="14" t="str">
+      <c r="W23" s="17" t="str">
         <f>IF(_tag_day_hour!V17="","",_tag_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="X23" s="14" t="str">
+      <c r="X23" s="17" t="str">
         <f>IF(_tag_day_hour!W17="","",_tag_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Y23" s="15" t="str">
+      <c r="Y23" s="18" t="str">
         <f>IF(_tag_day_hour!X17="","",_tag_day_hour!X17)</f>
         <v/>
       </c>
-      <c r="Z23" s="14" t="str">
+      <c r="Z23" s="19" t="str">
         <f>IF(_tag_day_hour!Y17="","",_tag_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AA23" s="14" t="str">
+      <c r="AA23" s="17" t="str">
         <f>IF(_tag_day_hour!Z17="","",_tag_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AB23" s="15" t="str">
+      <c r="AB23" s="18" t="str">
         <f>IF(_tag_day_hour!AA17="","",_tag_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AC23" s="15" t="str">
+      <c r="AC23" s="18" t="str">
         <f>IF(_tag_day_hour!AB17="","",_tag_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AD23" s="28"/>
+      <c r="AD23" s="36"/>
     </row>
     <row r="24" s="6" customFormat="1" spans="1:30">
-      <c r="A24" s="13">
+      <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="B24" s="14" t="str">
+      <c r="B24" s="17" t="str">
         <f>IF(_tag_day_hour!A18="","",_tag_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="C24" s="14" t="str">
+      <c r="C24" s="17" t="str">
         <f>IF(_tag_day_hour!B18="","",_tag_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D24" s="17" t="str">
         <f>IF(_tag_day_hour!C18="","",_tag_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="E24" s="15" t="str">
+      <c r="E24" s="18" t="str">
         <f>IF(_tag_day_hour!D18="","",_tag_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="F24" s="14" t="str">
+      <c r="F24" s="17" t="str">
         <f>IF(_tag_day_hour!E18="","",_tag_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="17" t="str">
         <f>IF(_tag_day_hour!F18="","",_tag_day_hour!F18)</f>
         <v/>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="19" t="str">
         <f>IF(_tag_day_hour!G18="","",_tag_day_hour!G18)</f>
         <v/>
       </c>
-      <c r="I24" s="14" t="str">
+      <c r="I24" s="17" t="str">
         <f>IF(_tag_day_hour!H18="","",_tag_day_hour!H18)</f>
         <v/>
       </c>
-      <c r="J24" s="14" t="str">
+      <c r="J24" s="17" t="str">
         <f>IF(_tag_day_hour!I18="","",_tag_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="K24" s="14" t="str">
+      <c r="K24" s="17" t="str">
         <f>IF(_tag_day_hour!J18="","",_tag_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="L24" s="14" t="str">
+      <c r="L24" s="17" t="str">
         <f>IF(_tag_day_hour!K18="","",_tag_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="M24" s="15" t="str">
+      <c r="M24" s="18" t="str">
         <f>IF(_tag_day_hour!L18="","",_tag_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="N24" s="15" t="str">
+      <c r="N24" s="18" t="str">
         <f>IF(_tag_day_hour!M18="","",_tag_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="O24" s="15" t="str">
+      <c r="O24" s="18" t="str">
         <f>IF(_tag_day_hour!N18="","",_tag_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="P24" s="15" t="str">
+      <c r="P24" s="18" t="str">
         <f>IF(_tag_day_hour!O18="","",_tag_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="Q24" s="14" t="str">
+      <c r="Q24" s="17" t="str">
         <f>IF(_tag_day_hour!P18="","",_tag_day_hour!P18)</f>
         <v/>
       </c>
-      <c r="R24" s="15" t="str">
+      <c r="R24" s="18" t="str">
         <f>IF(_tag_day_hour!Q18="","",_tag_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="S24" s="15" t="str">
+      <c r="S24" s="18" t="str">
         <f>IF(_tag_day_hour!R18="","",_tag_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="T24" s="14" t="str">
+      <c r="T24" s="17" t="str">
         <f>IF(_tag_day_hour!S18="","",_tag_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="U24" s="14" t="str">
+      <c r="U24" s="17" t="str">
         <f>IF(_tag_day_hour!T18="","",_tag_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="V24" s="14" t="str">
+      <c r="V24" s="17" t="str">
         <f>IF(_tag_day_hour!U18="","",_tag_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="W24" s="14" t="str">
+      <c r="W24" s="17" t="str">
         <f>IF(_tag_day_hour!V18="","",_tag_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="X24" s="14" t="str">
+      <c r="X24" s="17" t="str">
         <f>IF(_tag_day_hour!W18="","",_tag_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Y24" s="15" t="str">
+      <c r="Y24" s="18" t="str">
         <f>IF(_tag_day_hour!X18="","",_tag_day_hour!X18)</f>
         <v/>
       </c>
-      <c r="Z24" s="14" t="str">
+      <c r="Z24" s="19" t="str">
         <f>IF(_tag_day_hour!Y18="","",_tag_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AA24" s="14" t="str">
+      <c r="AA24" s="17" t="str">
         <f>IF(_tag_day_hour!Z18="","",_tag_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AB24" s="15" t="str">
+      <c r="AB24" s="18" t="str">
         <f>IF(_tag_day_hour!AA18="","",_tag_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AC24" s="15" t="str">
+      <c r="AC24" s="18" t="str">
         <f>IF(_tag_day_hour!AB18="","",_tag_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AD24" s="27" t="s">
+      <c r="AD24" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" s="6" customFormat="1" spans="1:30">
-      <c r="A25" s="13">
+      <c r="A25" s="16">
         <v>17</v>
       </c>
-      <c r="B25" s="14" t="str">
+      <c r="B25" s="17" t="str">
         <f>IF(_tag_day_hour!A19="","",_tag_day_hour!A19)</f>
         <v/>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C25" s="17" t="str">
         <f>IF(_tag_day_hour!B19="","",_tag_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="17" t="str">
         <f>IF(_tag_day_hour!C19="","",_tag_day_hour!C19)</f>
         <v/>
       </c>
-      <c r="E25" s="15" t="str">
+      <c r="E25" s="18" t="str">
         <f>IF(_tag_day_hour!D19="","",_tag_day_hour!D19)</f>
         <v/>
       </c>
-      <c r="F25" s="14" t="str">
+      <c r="F25" s="17" t="str">
         <f>IF(_tag_day_hour!E19="","",_tag_day_hour!E19)</f>
         <v/>
       </c>
-      <c r="G25" s="14" t="str">
+      <c r="G25" s="17" t="str">
         <f>IF(_tag_day_hour!F19="","",_tag_day_hour!F19)</f>
         <v/>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="19" t="str">
         <f>IF(_tag_day_hour!G19="","",_tag_day_hour!G19)</f>
         <v/>
       </c>
-      <c r="I25" s="14" t="str">
+      <c r="I25" s="17" t="str">
         <f>IF(_tag_day_hour!H19="","",_tag_day_hour!H19)</f>
         <v/>
       </c>
-      <c r="J25" s="14" t="str">
+      <c r="J25" s="17" t="str">
         <f>IF(_tag_day_hour!I19="","",_tag_day_hour!I19)</f>
         <v/>
       </c>
-      <c r="K25" s="14" t="str">
+      <c r="K25" s="17" t="str">
         <f>IF(_tag_day_hour!J19="","",_tag_day_hour!J19)</f>
         <v/>
       </c>
-      <c r="L25" s="14" t="str">
+      <c r="L25" s="17" t="str">
         <f>IF(_tag_day_hour!K19="","",_tag_day_hour!K19)</f>
         <v/>
       </c>
-      <c r="M25" s="15" t="str">
+      <c r="M25" s="18" t="str">
         <f>IF(_tag_day_hour!L19="","",_tag_day_hour!L19)</f>
         <v/>
       </c>
-      <c r="N25" s="15" t="str">
+      <c r="N25" s="18" t="str">
         <f>IF(_tag_day_hour!M19="","",_tag_day_hour!M19)</f>
         <v/>
       </c>
-      <c r="O25" s="15" t="str">
+      <c r="O25" s="18" t="str">
         <f>IF(_tag_day_hour!N19="","",_tag_day_hour!N19)</f>
         <v/>
       </c>
-      <c r="P25" s="15" t="str">
+      <c r="P25" s="18" t="str">
         <f>IF(_tag_day_hour!O19="","",_tag_day_hour!O19)</f>
         <v/>
       </c>
-      <c r="Q25" s="14" t="str">
+      <c r="Q25" s="17" t="str">
         <f>IF(_tag_day_hour!P19="","",_tag_day_hour!P19)</f>
         <v/>
       </c>
-      <c r="R25" s="15" t="str">
+      <c r="R25" s="18" t="str">
         <f>IF(_tag_day_hour!Q19="","",_tag_day_hour!Q19)</f>
         <v/>
       </c>
-      <c r="S25" s="15" t="str">
+      <c r="S25" s="18" t="str">
         <f>IF(_tag_day_hour!R19="","",_tag_day_hour!R19)</f>
         <v/>
       </c>
-      <c r="T25" s="14" t="str">
+      <c r="T25" s="17" t="str">
         <f>IF(_tag_day_hour!S19="","",_tag_day_hour!S19)</f>
         <v/>
       </c>
-      <c r="U25" s="14" t="str">
+      <c r="U25" s="17" t="str">
         <f>IF(_tag_day_hour!T19="","",_tag_day_hour!T19)</f>
         <v/>
       </c>
-      <c r="V25" s="14" t="str">
+      <c r="V25" s="17" t="str">
         <f>IF(_tag_day_hour!U19="","",_tag_day_hour!U19)</f>
         <v/>
       </c>
-      <c r="W25" s="14" t="str">
+      <c r="W25" s="17" t="str">
         <f>IF(_tag_day_hour!V19="","",_tag_day_hour!V19)</f>
         <v/>
       </c>
-      <c r="X25" s="14" t="str">
+      <c r="X25" s="17" t="str">
         <f>IF(_tag_day_hour!W19="","",_tag_day_hour!W19)</f>
         <v/>
       </c>
-      <c r="Y25" s="15" t="str">
+      <c r="Y25" s="18" t="str">
         <f>IF(_tag_day_hour!X19="","",_tag_day_hour!X19)</f>
         <v/>
       </c>
-      <c r="Z25" s="14" t="str">
+      <c r="Z25" s="19" t="str">
         <f>IF(_tag_day_hour!Y19="","",_tag_day_hour!Y19)</f>
         <v/>
       </c>
-      <c r="AA25" s="14" t="str">
+      <c r="AA25" s="17" t="str">
         <f>IF(_tag_day_hour!Z19="","",_tag_day_hour!Z19)</f>
         <v/>
       </c>
-      <c r="AB25" s="15" t="str">
+      <c r="AB25" s="18" t="str">
         <f>IF(_tag_day_hour!AA19="","",_tag_day_hour!AA19)</f>
         <v/>
       </c>
-      <c r="AC25" s="15" t="str">
+      <c r="AC25" s="18" t="str">
         <f>IF(_tag_day_hour!AB19="","",_tag_day_hour!AB19)</f>
         <v/>
       </c>
-      <c r="AD25" s="28"/>
+      <c r="AD25" s="36"/>
     </row>
     <row r="26" s="6" customFormat="1" spans="1:30">
-      <c r="A26" s="13">
+      <c r="A26" s="16">
         <v>18</v>
       </c>
-      <c r="B26" s="14" t="str">
+      <c r="B26" s="17" t="str">
         <f>IF(_tag_day_hour!A20="","",_tag_day_hour!A20)</f>
         <v/>
       </c>
-      <c r="C26" s="14" t="str">
+      <c r="C26" s="17" t="str">
         <f>IF(_tag_day_hour!B20="","",_tag_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D26" s="17" t="str">
         <f>IF(_tag_day_hour!C20="","",_tag_day_hour!C20)</f>
         <v/>
       </c>
-      <c r="E26" s="15" t="str">
+      <c r="E26" s="18" t="str">
         <f>IF(_tag_day_hour!D20="","",_tag_day_hour!D20)</f>
         <v/>
       </c>
-      <c r="F26" s="14" t="str">
+      <c r="F26" s="17" t="str">
         <f>IF(_tag_day_hour!E20="","",_tag_day_hour!E20)</f>
         <v/>
       </c>
-      <c r="G26" s="14" t="str">
+      <c r="G26" s="17" t="str">
         <f>IF(_tag_day_hour!F20="","",_tag_day_hour!F20)</f>
         <v/>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="19" t="str">
         <f>IF(_tag_day_hour!G20="","",_tag_day_hour!G20)</f>
         <v/>
       </c>
-      <c r="I26" s="14" t="str">
+      <c r="I26" s="17" t="str">
         <f>IF(_tag_day_hour!H20="","",_tag_day_hour!H20)</f>
         <v/>
       </c>
-      <c r="J26" s="14" t="str">
+      <c r="J26" s="17" t="str">
         <f>IF(_tag_day_hour!I20="","",_tag_day_hour!I20)</f>
         <v/>
       </c>
-      <c r="K26" s="14" t="str">
+      <c r="K26" s="17" t="str">
         <f>IF(_tag_day_hour!J20="","",_tag_day_hour!J20)</f>
         <v/>
       </c>
-      <c r="L26" s="14" t="str">
+      <c r="L26" s="17" t="str">
         <f>IF(_tag_day_hour!K20="","",_tag_day_hour!K20)</f>
         <v/>
       </c>
-      <c r="M26" s="15" t="str">
+      <c r="M26" s="18" t="str">
         <f>IF(_tag_day_hour!L20="","",_tag_day_hour!L20)</f>
         <v/>
       </c>
-      <c r="N26" s="15" t="str">
+      <c r="N26" s="18" t="str">
         <f>IF(_tag_day_hour!M20="","",_tag_day_hour!M20)</f>
         <v/>
       </c>
-      <c r="O26" s="15" t="str">
+      <c r="O26" s="18" t="str">
         <f>IF(_tag_day_hour!N20="","",_tag_day_hour!N20)</f>
         <v/>
       </c>
-      <c r="P26" s="15" t="str">
+      <c r="P26" s="18" t="str">
         <f>IF(_tag_day_hour!O20="","",_tag_day_hour!O20)</f>
         <v/>
       </c>
-      <c r="Q26" s="14" t="str">
+      <c r="Q26" s="17" t="str">
         <f>IF(_tag_day_hour!P20="","",_tag_day_hour!P20)</f>
         <v/>
       </c>
-      <c r="R26" s="15" t="str">
+      <c r="R26" s="18" t="str">
         <f>IF(_tag_day_hour!Q20="","",_tag_day_hour!Q20)</f>
         <v/>
       </c>
-      <c r="S26" s="15" t="str">
+      <c r="S26" s="18" t="str">
         <f>IF(_tag_day_hour!R20="","",_tag_day_hour!R20)</f>
         <v/>
       </c>
-      <c r="T26" s="14" t="str">
+      <c r="T26" s="17" t="str">
         <f>IF(_tag_day_hour!S20="","",_tag_day_hour!S20)</f>
         <v/>
       </c>
-      <c r="U26" s="14" t="str">
+      <c r="U26" s="17" t="str">
         <f>IF(_tag_day_hour!T20="","",_tag_day_hour!T20)</f>
         <v/>
       </c>
-      <c r="V26" s="14" t="str">
+      <c r="V26" s="17" t="str">
         <f>IF(_tag_day_hour!U20="","",_tag_day_hour!U20)</f>
         <v/>
       </c>
-      <c r="W26" s="14" t="str">
+      <c r="W26" s="17" t="str">
         <f>IF(_tag_day_hour!V20="","",_tag_day_hour!V20)</f>
         <v/>
       </c>
-      <c r="X26" s="14" t="str">
+      <c r="X26" s="17" t="str">
         <f>IF(_tag_day_hour!W20="","",_tag_day_hour!W20)</f>
         <v/>
       </c>
-      <c r="Y26" s="15" t="str">
+      <c r="Y26" s="18" t="str">
         <f>IF(_tag_day_hour!X20="","",_tag_day_hour!X20)</f>
         <v/>
       </c>
-      <c r="Z26" s="14" t="str">
+      <c r="Z26" s="19" t="str">
         <f>IF(_tag_day_hour!Y20="","",_tag_day_hour!Y20)</f>
         <v/>
       </c>
-      <c r="AA26" s="14" t="str">
+      <c r="AA26" s="17" t="str">
         <f>IF(_tag_day_hour!Z20="","",_tag_day_hour!Z20)</f>
         <v/>
       </c>
-      <c r="AB26" s="15" t="str">
+      <c r="AB26" s="18" t="str">
         <f>IF(_tag_day_hour!AA20="","",_tag_day_hour!AA20)</f>
         <v/>
       </c>
-      <c r="AC26" s="15" t="str">
+      <c r="AC26" s="18" t="str">
         <f>IF(_tag_day_hour!AB20="","",_tag_day_hour!AB20)</f>
         <v/>
       </c>
-      <c r="AD26" s="28"/>
+      <c r="AD26" s="36"/>
     </row>
     <row r="27" s="6" customFormat="1" spans="1:30">
-      <c r="A27" s="13">
+      <c r="A27" s="16">
         <v>19</v>
       </c>
-      <c r="B27" s="14" t="str">
+      <c r="B27" s="17" t="str">
         <f>IF(_tag_day_hour!A21="","",_tag_day_hour!A21)</f>
         <v/>
       </c>
-      <c r="C27" s="14" t="str">
+      <c r="C27" s="17" t="str">
         <f>IF(_tag_day_hour!B21="","",_tag_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D27" s="17" t="str">
         <f>IF(_tag_day_hour!C21="","",_tag_day_hour!C21)</f>
         <v/>
       </c>
-      <c r="E27" s="15" t="str">
+      <c r="E27" s="18" t="str">
         <f>IF(_tag_day_hour!D21="","",_tag_day_hour!D21)</f>
         <v/>
       </c>
-      <c r="F27" s="14" t="str">
+      <c r="F27" s="17" t="str">
         <f>IF(_tag_day_hour!E21="","",_tag_day_hour!E21)</f>
         <v/>
       </c>
-      <c r="G27" s="14" t="str">
+      <c r="G27" s="17" t="str">
         <f>IF(_tag_day_hour!F21="","",_tag_day_hour!F21)</f>
         <v/>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="19" t="str">
         <f>IF(_tag_day_hour!G21="","",_tag_day_hour!G21)</f>
         <v/>
       </c>
-      <c r="I27" s="14" t="str">
+      <c r="I27" s="17" t="str">
         <f>IF(_tag_day_hour!H21="","",_tag_day_hour!H21)</f>
         <v/>
       </c>
-      <c r="J27" s="14" t="str">
+      <c r="J27" s="17" t="str">
         <f>IF(_tag_day_hour!I21="","",_tag_day_hour!I21)</f>
         <v/>
       </c>
-      <c r="K27" s="14" t="str">
+      <c r="K27" s="17" t="str">
         <f>IF(_tag_day_hour!J21="","",_tag_day_hour!J21)</f>
         <v/>
       </c>
-      <c r="L27" s="14" t="str">
+      <c r="L27" s="17" t="str">
         <f>IF(_tag_day_hour!K21="","",_tag_day_hour!K21)</f>
         <v/>
       </c>
-      <c r="M27" s="15" t="str">
+      <c r="M27" s="18" t="str">
         <f>IF(_tag_day_hour!L21="","",_tag_day_hour!L21)</f>
         <v/>
       </c>
-      <c r="N27" s="15" t="str">
+      <c r="N27" s="18" t="str">
         <f>IF(_tag_day_hour!M21="","",_tag_day_hour!M21)</f>
         <v/>
       </c>
-      <c r="O27" s="15" t="str">
+      <c r="O27" s="18" t="str">
         <f>IF(_tag_day_hour!N21="","",_tag_day_hour!N21)</f>
         <v/>
       </c>
-      <c r="P27" s="15" t="str">
+      <c r="P27" s="18" t="str">
         <f>IF(_tag_day_hour!O21="","",_tag_day_hour!O21)</f>
         <v/>
       </c>
-      <c r="Q27" s="14" t="str">
+      <c r="Q27" s="17" t="str">
         <f>IF(_tag_day_hour!P21="","",_tag_day_hour!P21)</f>
         <v/>
       </c>
-      <c r="R27" s="15" t="str">
+      <c r="R27" s="18" t="str">
         <f>IF(_tag_day_hour!Q21="","",_tag_day_hour!Q21)</f>
         <v/>
       </c>
-      <c r="S27" s="15" t="str">
+      <c r="S27" s="18" t="str">
         <f>IF(_tag_day_hour!R21="","",_tag_day_hour!R21)</f>
         <v/>
       </c>
-      <c r="T27" s="14" t="str">
+      <c r="T27" s="17" t="str">
         <f>IF(_tag_day_hour!S21="","",_tag_day_hour!S21)</f>
         <v/>
       </c>
-      <c r="U27" s="14" t="str">
+      <c r="U27" s="17" t="str">
         <f>IF(_tag_day_hour!T21="","",_tag_day_hour!T21)</f>
         <v/>
       </c>
-      <c r="V27" s="14" t="str">
+      <c r="V27" s="17" t="str">
         <f>IF(_tag_day_hour!U21="","",_tag_day_hour!U21)</f>
         <v/>
       </c>
-      <c r="W27" s="14" t="str">
+      <c r="W27" s="17" t="str">
         <f>IF(_tag_day_hour!V21="","",_tag_day_hour!V21)</f>
         <v/>
       </c>
-      <c r="X27" s="14" t="str">
+      <c r="X27" s="17" t="str">
         <f>IF(_tag_day_hour!W21="","",_tag_day_hour!W21)</f>
         <v/>
       </c>
-      <c r="Y27" s="15" t="str">
+      <c r="Y27" s="18" t="str">
         <f>IF(_tag_day_hour!X21="","",_tag_day_hour!X21)</f>
         <v/>
       </c>
-      <c r="Z27" s="14" t="str">
+      <c r="Z27" s="19" t="str">
         <f>IF(_tag_day_hour!Y21="","",_tag_day_hour!Y21)</f>
         <v/>
       </c>
-      <c r="AA27" s="14" t="str">
+      <c r="AA27" s="17" t="str">
         <f>IF(_tag_day_hour!Z21="","",_tag_day_hour!Z21)</f>
         <v/>
       </c>
-      <c r="AB27" s="15" t="str">
+      <c r="AB27" s="18" t="str">
         <f>IF(_tag_day_hour!AA21="","",_tag_day_hour!AA21)</f>
         <v/>
       </c>
-      <c r="AC27" s="15" t="str">
+      <c r="AC27" s="18" t="str">
         <f>IF(_tag_day_hour!AB21="","",_tag_day_hour!AB21)</f>
         <v/>
       </c>
-      <c r="AD27" s="28"/>
+      <c r="AD27" s="36"/>
     </row>
     <row r="28" s="6" customFormat="1" spans="1:30">
-      <c r="A28" s="13">
+      <c r="A28" s="16">
         <v>20</v>
       </c>
-      <c r="B28" s="14" t="str">
+      <c r="B28" s="17" t="str">
         <f>IF(_tag_day_hour!A22="","",_tag_day_hour!A22)</f>
         <v/>
       </c>
-      <c r="C28" s="14" t="str">
+      <c r="C28" s="17" t="str">
         <f>IF(_tag_day_hour!B22="","",_tag_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D28" s="17" t="str">
         <f>IF(_tag_day_hour!C22="","",_tag_day_hour!C22)</f>
         <v/>
       </c>
-      <c r="E28" s="15" t="str">
+      <c r="E28" s="18" t="str">
         <f>IF(_tag_day_hour!D22="","",_tag_day_hour!D22)</f>
         <v/>
       </c>
-      <c r="F28" s="14" t="str">
+      <c r="F28" s="17" t="str">
         <f>IF(_tag_day_hour!E22="","",_tag_day_hour!E22)</f>
         <v/>
       </c>
-      <c r="G28" s="14" t="str">
+      <c r="G28" s="17" t="str">
         <f>IF(_tag_day_hour!F22="","",_tag_day_hour!F22)</f>
         <v/>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="19" t="str">
         <f>IF(_tag_day_hour!G22="","",_tag_day_hour!G22)</f>
         <v/>
       </c>
-      <c r="I28" s="14" t="str">
+      <c r="I28" s="17" t="str">
         <f>IF(_tag_day_hour!H22="","",_tag_day_hour!H22)</f>
         <v/>
       </c>
-      <c r="J28" s="14" t="str">
+      <c r="J28" s="17" t="str">
         <f>IF(_tag_day_hour!I22="","",_tag_day_hour!I22)</f>
         <v/>
       </c>
-      <c r="K28" s="14" t="str">
+      <c r="K28" s="17" t="str">
         <f>IF(_tag_day_hour!J22="","",_tag_day_hour!J22)</f>
         <v/>
       </c>
-      <c r="L28" s="14" t="str">
+      <c r="L28" s="17" t="str">
         <f>IF(_tag_day_hour!K22="","",_tag_day_hour!K22)</f>
         <v/>
       </c>
-      <c r="M28" s="15" t="str">
+      <c r="M28" s="18" t="str">
         <f>IF(_tag_day_hour!L22="","",_tag_day_hour!L22)</f>
         <v/>
       </c>
-      <c r="N28" s="15" t="str">
+      <c r="N28" s="18" t="str">
         <f>IF(_tag_day_hour!M22="","",_tag_day_hour!M22)</f>
         <v/>
       </c>
-      <c r="O28" s="15" t="str">
+      <c r="O28" s="18" t="str">
         <f>IF(_tag_day_hour!N22="","",_tag_day_hour!N22)</f>
         <v/>
       </c>
-      <c r="P28" s="15" t="str">
+      <c r="P28" s="18" t="str">
         <f>IF(_tag_day_hour!O22="","",_tag_day_hour!O22)</f>
         <v/>
       </c>
-      <c r="Q28" s="14" t="str">
+      <c r="Q28" s="17" t="str">
         <f>IF(_tag_day_hour!P22="","",_tag_day_hour!P22)</f>
         <v/>
       </c>
-      <c r="R28" s="15" t="str">
+      <c r="R28" s="18" t="str">
         <f>IF(_tag_day_hour!Q22="","",_tag_day_hour!Q22)</f>
         <v/>
       </c>
-      <c r="S28" s="15" t="str">
+      <c r="S28" s="18" t="str">
         <f>IF(_tag_day_hour!R22="","",_tag_day_hour!R22)</f>
         <v/>
       </c>
-      <c r="T28" s="14" t="str">
+      <c r="T28" s="17" t="str">
         <f>IF(_tag_day_hour!S22="","",_tag_day_hour!S22)</f>
         <v/>
       </c>
-      <c r="U28" s="14" t="str">
+      <c r="U28" s="17" t="str">
         <f>IF(_tag_day_hour!T22="","",_tag_day_hour!T22)</f>
         <v/>
       </c>
-      <c r="V28" s="14" t="str">
+      <c r="V28" s="17" t="str">
         <f>IF(_tag_day_hour!U22="","",_tag_day_hour!U22)</f>
         <v/>
       </c>
-      <c r="W28" s="14" t="str">
+      <c r="W28" s="17" t="str">
         <f>IF(_tag_day_hour!V22="","",_tag_day_hour!V22)</f>
         <v/>
       </c>
-      <c r="X28" s="14" t="str">
+      <c r="X28" s="17" t="str">
         <f>IF(_tag_day_hour!W22="","",_tag_day_hour!W22)</f>
         <v/>
       </c>
-      <c r="Y28" s="15" t="str">
+      <c r="Y28" s="18" t="str">
         <f>IF(_tag_day_hour!X22="","",_tag_day_hour!X22)</f>
         <v/>
       </c>
-      <c r="Z28" s="14" t="str">
+      <c r="Z28" s="19" t="str">
         <f>IF(_tag_day_hour!Y22="","",_tag_day_hour!Y22)</f>
         <v/>
       </c>
-      <c r="AA28" s="14" t="str">
+      <c r="AA28" s="17" t="str">
         <f>IF(_tag_day_hour!Z22="","",_tag_day_hour!Z22)</f>
         <v/>
       </c>
-      <c r="AB28" s="15" t="str">
+      <c r="AB28" s="18" t="str">
         <f>IF(_tag_day_hour!AA22="","",_tag_day_hour!AA22)</f>
         <v/>
       </c>
-      <c r="AC28" s="15" t="str">
+      <c r="AC28" s="18" t="str">
         <f>IF(_tag_day_hour!AB22="","",_tag_day_hour!AB22)</f>
         <v/>
       </c>
-      <c r="AD28" s="28"/>
+      <c r="AD28" s="36"/>
     </row>
     <row r="29" s="6" customFormat="1" spans="1:30">
-      <c r="A29" s="13">
+      <c r="A29" s="16">
         <v>21</v>
       </c>
-      <c r="B29" s="14" t="str">
+      <c r="B29" s="17" t="str">
         <f>IF(_tag_day_hour!A23="","",_tag_day_hour!A23)</f>
         <v/>
       </c>
-      <c r="C29" s="14" t="str">
+      <c r="C29" s="17" t="str">
         <f>IF(_tag_day_hour!B23="","",_tag_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D29" s="17" t="str">
         <f>IF(_tag_day_hour!C23="","",_tag_day_hour!C23)</f>
         <v/>
       </c>
-      <c r="E29" s="15" t="str">
+      <c r="E29" s="18" t="str">
         <f>IF(_tag_day_hour!D23="","",_tag_day_hour!D23)</f>
         <v/>
       </c>
-      <c r="F29" s="14" t="str">
+      <c r="F29" s="17" t="str">
         <f>IF(_tag_day_hour!E23="","",_tag_day_hour!E23)</f>
         <v/>
       </c>
-      <c r="G29" s="14" t="str">
+      <c r="G29" s="17" t="str">
         <f>IF(_tag_day_hour!F23="","",_tag_day_hour!F23)</f>
         <v/>
       </c>
-      <c r="H29" s="14" t="str">
+      <c r="H29" s="19" t="str">
         <f>IF(_tag_day_hour!G23="","",_tag_day_hour!G23)</f>
         <v/>
       </c>
-      <c r="I29" s="14" t="str">
+      <c r="I29" s="17" t="str">
         <f>IF(_tag_day_hour!H23="","",_tag_day_hour!H23)</f>
         <v/>
       </c>
-      <c r="J29" s="14" t="str">
+      <c r="J29" s="17" t="str">
         <f>IF(_tag_day_hour!I23="","",_tag_day_hour!I23)</f>
         <v/>
       </c>
-      <c r="K29" s="14" t="str">
+      <c r="K29" s="17" t="str">
         <f>IF(_tag_day_hour!J23="","",_tag_day_hour!J23)</f>
         <v/>
       </c>
-      <c r="L29" s="14" t="str">
+      <c r="L29" s="17" t="str">
         <f>IF(_tag_day_hour!K23="","",_tag_day_hour!K23)</f>
         <v/>
       </c>
-      <c r="M29" s="15" t="str">
+      <c r="M29" s="18" t="str">
         <f>IF(_tag_day_hour!L23="","",_tag_day_hour!L23)</f>
         <v/>
       </c>
-      <c r="N29" s="15" t="str">
+      <c r="N29" s="18" t="str">
         <f>IF(_tag_day_hour!M23="","",_tag_day_hour!M23)</f>
         <v/>
       </c>
-      <c r="O29" s="15" t="str">
+      <c r="O29" s="18" t="str">
         <f>IF(_tag_day_hour!N23="","",_tag_day_hour!N23)</f>
         <v/>
       </c>
-      <c r="P29" s="15" t="str">
+      <c r="P29" s="18" t="str">
         <f>IF(_tag_day_hour!O23="","",_tag_day_hour!O23)</f>
         <v/>
       </c>
-      <c r="Q29" s="14" t="str">
+      <c r="Q29" s="17" t="str">
         <f>IF(_tag_day_hour!P23="","",_tag_day_hour!P23)</f>
         <v/>
       </c>
-      <c r="R29" s="15" t="str">
+      <c r="R29" s="18" t="str">
         <f>IF(_tag_day_hour!Q23="","",_tag_day_hour!Q23)</f>
         <v/>
       </c>
-      <c r="S29" s="15" t="str">
+      <c r="S29" s="18" t="str">
         <f>IF(_tag_day_hour!R23="","",_tag_day_hour!R23)</f>
         <v/>
       </c>
-      <c r="T29" s="14" t="str">
+      <c r="T29" s="17" t="str">
         <f>IF(_tag_day_hour!S23="","",_tag_day_hour!S23)</f>
         <v/>
       </c>
-      <c r="U29" s="14" t="str">
+      <c r="U29" s="17" t="str">
         <f>IF(_tag_day_hour!T23="","",_tag_day_hour!T23)</f>
         <v/>
       </c>
-      <c r="V29" s="14" t="str">
+      <c r="V29" s="17" t="str">
         <f>IF(_tag_day_hour!U23="","",_tag_day_hour!U23)</f>
         <v/>
       </c>
-      <c r="W29" s="14" t="str">
+      <c r="W29" s="17" t="str">
         <f>IF(_tag_day_hour!V23="","",_tag_day_hour!V23)</f>
         <v/>
       </c>
-      <c r="X29" s="14" t="str">
+      <c r="X29" s="17" t="str">
         <f>IF(_tag_day_hour!W23="","",_tag_day_hour!W23)</f>
         <v/>
       </c>
-      <c r="Y29" s="15" t="str">
+      <c r="Y29" s="18" t="str">
         <f>IF(_tag_day_hour!X23="","",_tag_day_hour!X23)</f>
         <v/>
       </c>
-      <c r="Z29" s="14" t="str">
+      <c r="Z29" s="19" t="str">
         <f>IF(_tag_day_hour!Y23="","",_tag_day_hour!Y23)</f>
         <v/>
       </c>
-      <c r="AA29" s="14" t="str">
+      <c r="AA29" s="17" t="str">
         <f>IF(_tag_day_hour!Z23="","",_tag_day_hour!Z23)</f>
         <v/>
       </c>
-      <c r="AB29" s="15" t="str">
+      <c r="AB29" s="18" t="str">
         <f>IF(_tag_day_hour!AA23="","",_tag_day_hour!AA23)</f>
         <v/>
       </c>
-      <c r="AC29" s="15" t="str">
+      <c r="AC29" s="18" t="str">
         <f>IF(_tag_day_hour!AB23="","",_tag_day_hour!AB23)</f>
         <v/>
       </c>
-      <c r="AD29" s="28"/>
+      <c r="AD29" s="36"/>
     </row>
     <row r="30" s="6" customFormat="1" spans="1:30">
-      <c r="A30" s="13">
+      <c r="A30" s="16">
         <v>22</v>
       </c>
-      <c r="B30" s="14" t="str">
+      <c r="B30" s="17" t="str">
         <f>IF(_tag_day_hour!A24="","",_tag_day_hour!A24)</f>
         <v/>
       </c>
-      <c r="C30" s="14" t="str">
+      <c r="C30" s="17" t="str">
         <f>IF(_tag_day_hour!B24="","",_tag_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="D30" s="14" t="str">
+      <c r="D30" s="17" t="str">
         <f>IF(_tag_day_hour!C24="","",_tag_day_hour!C24)</f>
         <v/>
       </c>
-      <c r="E30" s="15" t="str">
+      <c r="E30" s="18" t="str">
         <f>IF(_tag_day_hour!D24="","",_tag_day_hour!D24)</f>
         <v/>
       </c>
-      <c r="F30" s="14" t="str">
+      <c r="F30" s="17" t="str">
         <f>IF(_tag_day_hour!E24="","",_tag_day_hour!E24)</f>
         <v/>
       </c>
-      <c r="G30" s="14" t="str">
+      <c r="G30" s="17" t="str">
         <f>IF(_tag_day_hour!F24="","",_tag_day_hour!F24)</f>
         <v/>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="19" t="str">
         <f>IF(_tag_day_hour!G24="","",_tag_day_hour!G24)</f>
         <v/>
       </c>
-      <c r="I30" s="14" t="str">
+      <c r="I30" s="17" t="str">
         <f>IF(_tag_day_hour!H24="","",_tag_day_hour!H24)</f>
         <v/>
       </c>
-      <c r="J30" s="14" t="str">
+      <c r="J30" s="17" t="str">
         <f>IF(_tag_day_hour!I24="","",_tag_day_hour!I24)</f>
         <v/>
       </c>
-      <c r="K30" s="14" t="str">
+      <c r="K30" s="17" t="str">
         <f>IF(_tag_day_hour!J24="","",_tag_day_hour!J24)</f>
         <v/>
       </c>
-      <c r="L30" s="14" t="str">
+      <c r="L30" s="17" t="str">
         <f>IF(_tag_day_hour!K24="","",_tag_day_hour!K24)</f>
         <v/>
       </c>
-      <c r="M30" s="15" t="str">
+      <c r="M30" s="18" t="str">
         <f>IF(_tag_day_hour!L24="","",_tag_day_hour!L24)</f>
         <v/>
       </c>
-      <c r="N30" s="15" t="str">
+      <c r="N30" s="18" t="str">
         <f>IF(_tag_day_hour!M24="","",_tag_day_hour!M24)</f>
         <v/>
       </c>
-      <c r="O30" s="15" t="str">
+      <c r="O30" s="18" t="str">
         <f>IF(_tag_day_hour!N24="","",_tag_day_hour!N24)</f>
         <v/>
       </c>
-      <c r="P30" s="15" t="str">
+      <c r="P30" s="18" t="str">
         <f>IF(_tag_day_hour!O24="","",_tag_day_hour!O24)</f>
         <v/>
       </c>
-      <c r="Q30" s="14" t="str">
+      <c r="Q30" s="17" t="str">
         <f>IF(_tag_day_hour!P24="","",_tag_day_hour!P24)</f>
         <v/>
       </c>
-      <c r="R30" s="15" t="str">
+      <c r="R30" s="18" t="str">
         <f>IF(_tag_day_hour!Q24="","",_tag_day_hour!Q24)</f>
         <v/>
       </c>
-      <c r="S30" s="15" t="str">
+      <c r="S30" s="18" t="str">
         <f>IF(_tag_day_hour!R24="","",_tag_day_hour!R24)</f>
         <v/>
       </c>
-      <c r="T30" s="14" t="str">
+      <c r="T30" s="17" t="str">
         <f>IF(_tag_day_hour!S24="","",_tag_day_hour!S24)</f>
         <v/>
       </c>
-      <c r="U30" s="14" t="str">
+      <c r="U30" s="17" t="str">
         <f>IF(_tag_day_hour!T24="","",_tag_day_hour!T24)</f>
         <v/>
       </c>
-      <c r="V30" s="14" t="str">
+      <c r="V30" s="17" t="str">
         <f>IF(_tag_day_hour!U24="","",_tag_day_hour!U24)</f>
         <v/>
       </c>
-      <c r="W30" s="14" t="str">
+      <c r="W30" s="17" t="str">
         <f>IF(_tag_day_hour!V24="","",_tag_day_hour!V24)</f>
         <v/>
       </c>
-      <c r="X30" s="14" t="str">
+      <c r="X30" s="17" t="str">
         <f>IF(_tag_day_hour!W24="","",_tag_day_hour!W24)</f>
         <v/>
       </c>
-      <c r="Y30" s="15" t="str">
+      <c r="Y30" s="18" t="str">
         <f>IF(_tag_day_hour!X24="","",_tag_day_hour!X24)</f>
         <v/>
       </c>
-      <c r="Z30" s="14" t="str">
+      <c r="Z30" s="19" t="str">
         <f>IF(_tag_day_hour!Y24="","",_tag_day_hour!Y24)</f>
         <v/>
       </c>
-      <c r="AA30" s="14" t="str">
+      <c r="AA30" s="17" t="str">
         <f>IF(_tag_day_hour!Z24="","",_tag_day_hour!Z24)</f>
         <v/>
       </c>
-      <c r="AB30" s="15" t="str">
+      <c r="AB30" s="18" t="str">
         <f>IF(_tag_day_hour!AA24="","",_tag_day_hour!AA24)</f>
         <v/>
       </c>
-      <c r="AC30" s="15" t="str">
+      <c r="AC30" s="18" t="str">
         <f>IF(_tag_day_hour!AB24="","",_tag_day_hour!AB24)</f>
         <v/>
       </c>
-      <c r="AD30" s="28"/>
+      <c r="AD30" s="36"/>
     </row>
     <row r="31" s="6" customFormat="1" ht="14.25" spans="1:30">
-      <c r="A31" s="16">
+      <c r="A31" s="20">
         <v>23</v>
       </c>
-      <c r="B31" s="17" t="str">
+      <c r="B31" s="21" t="str">
         <f>IF(_tag_day_hour!A25="","",_tag_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="C31" s="17" t="str">
+      <c r="C31" s="21" t="str">
         <f>IF(_tag_day_hour!B25="","",_tag_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="D31" s="17" t="str">
+      <c r="D31" s="21" t="str">
         <f>IF(_tag_day_hour!C25="","",_tag_day_hour!C25)</f>
         <v/>
       </c>
-      <c r="E31" s="18" t="str">
+      <c r="E31" s="22" t="str">
         <f>IF(_tag_day_hour!D25="","",_tag_day_hour!D25)</f>
         <v/>
       </c>
-      <c r="F31" s="17" t="str">
+      <c r="F31" s="21" t="str">
         <f>IF(_tag_day_hour!E25="","",_tag_day_hour!E25)</f>
         <v/>
       </c>
-      <c r="G31" s="17" t="str">
+      <c r="G31" s="21" t="str">
         <f>IF(_tag_day_hour!F25="","",_tag_day_hour!F25)</f>
         <v/>
       </c>
-      <c r="H31" s="17" t="str">
+      <c r="H31" s="23" t="str">
         <f>IF(_tag_day_hour!G25="","",_tag_day_hour!G25)</f>
         <v/>
       </c>
-      <c r="I31" s="17" t="str">
+      <c r="I31" s="21" t="str">
         <f>IF(_tag_day_hour!H25="","",_tag_day_hour!H25)</f>
         <v/>
       </c>
-      <c r="J31" s="17" t="str">
+      <c r="J31" s="21" t="str">
         <f>IF(_tag_day_hour!I25="","",_tag_day_hour!I25)</f>
         <v/>
       </c>
-      <c r="K31" s="17" t="str">
+      <c r="K31" s="21" t="str">
         <f>IF(_tag_day_hour!J25="","",_tag_day_hour!J25)</f>
         <v/>
       </c>
-      <c r="L31" s="17" t="str">
+      <c r="L31" s="21" t="str">
         <f>IF(_tag_day_hour!K25="","",_tag_day_hour!K25)</f>
         <v/>
       </c>
-      <c r="M31" s="18" t="str">
+      <c r="M31" s="22" t="str">
         <f>IF(_tag_day_hour!L25="","",_tag_day_hour!L25)</f>
         <v/>
       </c>
-      <c r="N31" s="18" t="str">
+      <c r="N31" s="22" t="str">
         <f>IF(_tag_day_hour!M25="","",_tag_day_hour!M25)</f>
         <v/>
       </c>
-      <c r="O31" s="18" t="str">
+      <c r="O31" s="22" t="str">
         <f>IF(_tag_day_hour!N25="","",_tag_day_hour!N25)</f>
         <v/>
       </c>
-      <c r="P31" s="18" t="str">
+      <c r="P31" s="22" t="str">
         <f>IF(_tag_day_hour!O25="","",_tag_day_hour!O25)</f>
         <v/>
       </c>
-      <c r="Q31" s="17" t="str">
+      <c r="Q31" s="21" t="str">
         <f>IF(_tag_day_hour!P25="","",_tag_day_hour!P25)</f>
         <v/>
       </c>
-      <c r="R31" s="18" t="str">
+      <c r="R31" s="22" t="str">
         <f>IF(_tag_day_hour!Q25="","",_tag_day_hour!Q25)</f>
         <v/>
       </c>
-      <c r="S31" s="18" t="str">
+      <c r="S31" s="22" t="str">
         <f>IF(_tag_day_hour!R25="","",_tag_day_hour!R25)</f>
         <v/>
       </c>
-      <c r="T31" s="17" t="str">
+      <c r="T31" s="21" t="str">
         <f>IF(_tag_day_hour!S25="","",_tag_day_hour!S25)</f>
         <v/>
       </c>
-      <c r="U31" s="17" t="str">
+      <c r="U31" s="21" t="str">
         <f>IF(_tag_day_hour!T25="","",_tag_day_hour!T25)</f>
         <v/>
       </c>
-      <c r="V31" s="17" t="str">
+      <c r="V31" s="21" t="str">
         <f>IF(_tag_day_hour!U25="","",_tag_day_hour!U25)</f>
         <v/>
       </c>
-      <c r="W31" s="17" t="str">
+      <c r="W31" s="21" t="str">
         <f>IF(_tag_day_hour!V25="","",_tag_day_hour!V25)</f>
         <v/>
       </c>
-      <c r="X31" s="17" t="str">
+      <c r="X31" s="21" t="str">
         <f>IF(_tag_day_hour!W25="","",_tag_day_hour!W25)</f>
         <v/>
       </c>
-      <c r="Y31" s="18" t="str">
+      <c r="Y31" s="22" t="str">
         <f>IF(_tag_day_hour!X25="","",_tag_day_hour!X25)</f>
         <v/>
       </c>
-      <c r="Z31" s="17" t="str">
+      <c r="Z31" s="23" t="str">
         <f>IF(_tag_day_hour!Y25="","",_tag_day_hour!Y25)</f>
         <v/>
       </c>
-      <c r="AA31" s="17" t="str">
+      <c r="AA31" s="21" t="str">
         <f>IF(_tag_day_hour!Z25="","",_tag_day_hour!Z25)</f>
         <v/>
       </c>
-      <c r="AB31" s="18" t="str">
+      <c r="AB31" s="22" t="str">
         <f>IF(_tag_day_hour!AA25="","",_tag_day_hour!AA25)</f>
         <v/>
       </c>
-      <c r="AC31" s="18" t="str">
+      <c r="AC31" s="22" t="str">
         <f>IF(_tag_day_hour!AB25="","",_tag_day_hour!AB25)</f>
         <v/>
       </c>
-      <c r="AD31" s="29"/>
+      <c r="AD31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">
